--- a/BARU/2023/10 OKTOBER/KELUAR 10.xlsx
+++ b/BARU/2023/10 OKTOBER/KELUAR 10.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NOTA" sheetId="1" r:id="rId1"/>
@@ -24,16 +24,15 @@
     <definedName name="pointer">PAJAK!$H$3</definedName>
     <definedName name="ponter">PAJAK!$H$3</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="28" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="214">
   <si>
     <t>Column1</t>
   </si>
@@ -431,9 +430,6 @@
     <t>NOVI / CONDRO</t>
   </si>
   <si>
-    <t>09-Hitung FP Keluar September 2023</t>
-  </si>
-  <si>
     <t>ko</t>
   </si>
   <si>
@@ -576,6 +572,108 @@
   </si>
   <si>
     <t>PUNCH KENKO NO. 85XL</t>
+  </si>
+  <si>
+    <t>CUTKENL500</t>
+  </si>
+  <si>
+    <t>CUTTER 18 MM KENKO L-500 (BESAR)</t>
+  </si>
+  <si>
+    <t>4615</t>
+  </si>
+  <si>
+    <t>10-Hitung FP Keluar Oktober 2023</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>4616</t>
+  </si>
+  <si>
+    <t>PENJKGP265</t>
+  </si>
+  <si>
+    <t>GEL PEN JOYKO GP-265 Q-GEL HITAM</t>
+  </si>
+  <si>
+    <t>4620</t>
+  </si>
+  <si>
+    <t>TIPJKCFS225</t>
+  </si>
+  <si>
+    <t>CORRECTION FLUID JOYKO CF-S225</t>
+  </si>
+  <si>
+    <t>OPJK24W</t>
+  </si>
+  <si>
+    <t>OPJK36W</t>
+  </si>
+  <si>
+    <t>CRAYON / OIL PASTEL JOYKO OP-24S PP CASE SEA WORLD</t>
+  </si>
+  <si>
+    <t>CRAYON / OIL PASTEL JOYKO OP-36S PP CASE SEA WORLD</t>
+  </si>
+  <si>
+    <t>4626</t>
+  </si>
+  <si>
+    <t>TIPKENKE107</t>
+  </si>
+  <si>
+    <t>TIPKENKE823</t>
+  </si>
+  <si>
+    <t>PENKENKE303</t>
+  </si>
+  <si>
+    <t>CORRECTION FLUID KENKO KE-107M</t>
+  </si>
+  <si>
+    <t>CORRECTION FLUID KENKO KE-823M</t>
+  </si>
+  <si>
+    <t>GEL PEN KENKO KE-303 T-GEL TRIANGULAR HITAM</t>
+  </si>
+  <si>
+    <t>4630</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>PWJK24WPANJANG</t>
+  </si>
+  <si>
+    <t>OPJK12W</t>
+  </si>
+  <si>
+    <t>PENSIL WARNA JOYKO CP-24PB (PANJANG)</t>
+  </si>
+  <si>
+    <t>CRAYON / OIL PASTEL JOYKO OP-12S PP CASE SEA WORLD</t>
+  </si>
+  <si>
+    <t>4638</t>
+  </si>
+  <si>
+    <t>4511</t>
+  </si>
+  <si>
+    <t>PWJK12WPANJANG</t>
+  </si>
+  <si>
+    <t>PWJK12WPENDEK</t>
+  </si>
+  <si>
+    <t>PENSIL WARNA JOYKO CP-12PB (PANJANG)</t>
+  </si>
+  <si>
+    <t>PENSIL WARNA JOYKO CP-S12 MINI (PENDEK)</t>
   </si>
 </sst>
 </file>
@@ -1792,38 +1890,80 @@
     <xf numFmtId="10" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="166" fontId="35" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="35" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="24" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="35" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="35" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="24" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1891,1087 +2031,45 @@
     <xf numFmtId="166" fontId="24" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="35" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="35" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="35" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="35" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="102">
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color auto="1"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="101">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -3082,21 +2180,33 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
       <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3120,6 +2230,37 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -3139,6 +2280,37 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -3154,6 +2326,137 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3204,6 +2507,68 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3227,21 +2592,33 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3265,6 +2642,37 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -3272,6 +2680,7 @@
         <vertAlign val="baseline"/>
         <color auto="1"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3279,6 +2688,36 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3318,10 +2757,121 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3345,6 +2895,37 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -3360,6 +2941,37 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3383,6 +2995,36 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -3397,6 +3039,37 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3442,10 +3115,70 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3468,6 +3201,36 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -3486,6 +3249,36 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -3497,6 +3290,81 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3523,6 +3391,37 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -3542,21 +3441,32 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3602,10 +3512,71 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3655,6 +3626,68 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3695,10 +3728,72 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3796,7 +3891,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="Table Style 1" pivot="0" count="1">
-      <tableStyleElement type="totalRow" dxfId="101"/>
+      <tableStyleElement type="totalRow" dxfId="100"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -4651,22 +4746,22 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="45213.578354861114" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="269">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="45217.620404629626" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="269">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1" r:id="rId2"/>
   </cacheSource>
   <cacheFields count="32">
     <cacheField name="//" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="33" count="11">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="52" count="18">
         <s v=""/>
         <n v="4"/>
         <n v="6"/>
@@ -4678,16 +4773,23 @@
         <n v="19"/>
         <n v="25"/>
         <n v="33"/>
+        <n v="35"/>
+        <n v="37"/>
+        <n v="39"/>
+        <n v="43"/>
+        <n v="47"/>
+        <n v="50"/>
+        <n v="52"/>
       </sharedItems>
     </cacheField>
     <cacheField name="h_No. Invoice :" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="23100001" maxValue="23100010"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="23100001" maxValue="23100017"/>
     </cacheField>
     <cacheField name="Tgl Invoice :" numFmtId="164">
-      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2023-10-05T00:00:00" maxDate="2023-10-15T00:00:00"/>
+      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2023-10-05T00:00:00" maxDate="2023-10-19T00:00:00"/>
     </cacheField>
     <cacheField name="Column2" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="5" maxValue="14"/>
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="5" maxValue="18"/>
     </cacheField>
     <cacheField name="Column3" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -4708,7 +4810,7 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Qty" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="576"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="720"/>
     </cacheField>
     <cacheField name="Unit" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -4744,7 +4846,7 @@
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="h_id" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="33"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="52"/>
     </cacheField>
     <cacheField name="h_jumlahbarang" numFmtId="0">
       <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="7"/>
@@ -5873,38 +5975,38 @@
     <s v=""/>
   </r>
   <r>
-    <x v="0"/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=" "/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <x v="11"/>
+    <n v="23100011"/>
+    <d v="2023-10-14T00:00:00"/>
+    <n v="14"/>
+    <s v="G"/>
+    <s v="4615"/>
+    <s v="REJOAGUNG"/>
+    <s v="AM 23100011"/>
+    <s v="G 4615"/>
+    <s v="LILY JULIAWATI (REJO AGUNG) JOMBANG"/>
+    <n v="60"/>
+    <s v="LSN"/>
+    <n v="3"/>
+    <s v="CUTKENL500"/>
+    <s v="CUTTER 18 MM KENKO L-500 (BESAR)"/>
+    <s v="CUTTER 18 MM KENKO L-500 (BESAR)"/>
+    <n v="147600"/>
+    <n v="0.125"/>
+    <m/>
+    <n v="7749000"/>
+    <s v="NOVI / CONDRO"/>
+    <m/>
+    <n v="35"/>
+    <n v="1"/>
+    <n v="8856000"/>
+    <n v="1107000"/>
+    <n v="0"/>
+    <n v="1107000"/>
+    <n v="7749000"/>
+    <n v="7749000"/>
+    <m/>
+    <s v="CUTTER 18 MM KENKO L-500 (BESAR)LSN147600"/>
   </r>
   <r>
     <x v="0"/>
@@ -5941,38 +6043,38 @@
     <s v=""/>
   </r>
   <r>
-    <x v="0"/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=" "/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <x v="12"/>
+    <n v="23100012"/>
+    <d v="2023-10-14T00:00:00"/>
+    <n v="14"/>
+    <s v="ko"/>
+    <s v="4616"/>
+    <s v="ANUGERAH"/>
+    <s v="AM 23100012"/>
+    <s v="KO 4616"/>
+    <s v="CV PELITA JAYA (ANUGERAH SEJAHTERA) PURWOKERTO"/>
+    <n v="144"/>
+    <s v="LSN"/>
+    <n v="1"/>
+    <s v="PENJKGP265"/>
+    <s v="GEL PEN JOYKO GP-265 Q-GEL"/>
+    <s v="GEL PEN JOYKO GP-265 Q-GEL HITAM"/>
+    <n v="28200"/>
+    <n v="0.13500000000000001"/>
+    <m/>
+    <n v="3512592"/>
+    <s v="NOVI / CONDRO"/>
+    <m/>
+    <n v="37"/>
+    <n v="1"/>
+    <n v="4060800"/>
+    <n v="548208"/>
+    <n v="0"/>
+    <n v="548208"/>
+    <n v="3512592"/>
+    <n v="3512592"/>
+    <m/>
+    <s v="GEL PEN JOYKO GP-265 Q-GEL HITAMLSN28200"/>
   </r>
   <r>
     <x v="0"/>
@@ -6009,38 +6111,38 @@
     <s v=""/>
   </r>
   <r>
-    <x v="0"/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=" "/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <x v="13"/>
+    <n v="23100013"/>
+    <d v="2023-10-16T00:00:00"/>
+    <n v="16"/>
+    <s v="G"/>
+    <s v="4620"/>
+    <s v="REJOAGUNG"/>
+    <s v="AM 23100013"/>
+    <s v="G 4620"/>
+    <s v="LILY JULIAWATI (REJO AGUNG) JOMBANG"/>
+    <n v="144"/>
+    <s v="PCS"/>
+    <n v="3"/>
+    <s v="OPJK24W"/>
+    <s v="CRAYON / OIL PASTEL JOYKO OP-24S PP CASE SEA WORLD"/>
+    <s v="CRAYON / OIL PASTEL JOYKO OP-24S PP CASE SEA WORLD"/>
+    <n v="29600"/>
+    <n v="0.125"/>
+    <m/>
+    <n v="3729600"/>
+    <s v="NOVI / CONDRO"/>
+    <m/>
+    <n v="39"/>
+    <n v="3"/>
+    <n v="4262400"/>
+    <n v="532800"/>
+    <n v="0"/>
+    <n v="532800"/>
+    <n v="3729600"/>
+    <n v="8498700"/>
+    <m/>
+    <s v="CRAYON / OIL PASTEL JOYKO OP-24S PP CASE SEA WORLDPCS29600"/>
   </r>
   <r>
     <x v="0"/>
@@ -6053,28 +6155,28 @@
     <s v=""/>
     <s v=" "/>
     <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <n v="72"/>
+    <s v="PCS"/>
+    <n v="2"/>
+    <s v="OPJK36W"/>
+    <s v="CRAYON / OIL PASTEL JOYKO OP-36S PP CASE SEA WORLD"/>
+    <s v="CRAYON / OIL PASTEL JOYKO OP-36S PP CASE SEA WORLD"/>
+    <n v="41500"/>
+    <n v="0.125"/>
+    <m/>
+    <n v="2614500"/>
+    <m/>
+    <m/>
+    <n v="39"/>
+    <n v="3"/>
+    <n v="2988000"/>
+    <n v="373500"/>
+    <n v="0"/>
+    <n v="373500"/>
+    <n v="2614500"/>
+    <s v=""/>
+    <m/>
+    <s v="CRAYON / OIL PASTEL JOYKO OP-36S PP CASE SEA WORLDPCS41500"/>
   </r>
   <r>
     <x v="0"/>
@@ -6087,28 +6189,28 @@
     <s v=""/>
     <s v=" "/>
     <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <n v="72"/>
+    <s v="PCS"/>
+    <n v="2"/>
+    <s v="TIPJKCFS225"/>
+    <s v="CORRECTION FLUID JOYKO CF-S225"/>
+    <s v="CORRECTION FLUID JOYKO CF-S225"/>
+    <n v="34200"/>
+    <n v="0.125"/>
+    <m/>
+    <n v="2154600"/>
+    <m/>
+    <m/>
+    <n v="39"/>
+    <n v="3"/>
+    <n v="2462400"/>
+    <n v="307800"/>
+    <n v="0"/>
+    <n v="307800"/>
+    <n v="2154600"/>
+    <s v=""/>
+    <m/>
+    <s v="CORRECTION FLUID JOYKO CF-S225PCS34200"/>
   </r>
   <r>
     <x v="0"/>
@@ -6145,38 +6247,38 @@
     <s v=""/>
   </r>
   <r>
-    <x v="0"/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=" "/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <x v="14"/>
+    <n v="23100014"/>
+    <d v="2023-10-16T00:00:00"/>
+    <n v="16"/>
+    <s v="ko"/>
+    <s v="4626"/>
+    <s v="ANUGERAH"/>
+    <s v="AM 23100014"/>
+    <s v="KO 4626"/>
+    <s v="CV PELITA JAYA (ANUGERAH SEJAHTERA) PURWOKERTO"/>
+    <n v="72"/>
+    <s v="LSN"/>
+    <n v="1"/>
+    <s v="TIPKENKE107"/>
+    <s v="CORRECTION FLUID KENKO KE-107M"/>
+    <s v="CORRECTION FLUID KENKO KE-107M"/>
+    <n v="55800"/>
+    <n v="0.13500000000000001"/>
+    <m/>
+    <n v="3475224"/>
+    <s v="NOVI / CONDRO"/>
+    <m/>
+    <n v="43"/>
+    <n v="3"/>
+    <n v="4017600"/>
+    <n v="542376"/>
+    <n v="0"/>
+    <n v="542376"/>
+    <n v="3475224"/>
+    <n v="9715680"/>
+    <m/>
+    <s v="CORRECTION FLUID KENKO KE-107MLSN55800"/>
   </r>
   <r>
     <x v="0"/>
@@ -6189,28 +6291,28 @@
     <s v=""/>
     <s v=" "/>
     <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <n v="72"/>
+    <s v="LSN"/>
+    <n v="1"/>
+    <s v="TIPKENKE823"/>
+    <s v="CORRECTION FLUID KENKO KE-823M"/>
+    <s v="CORRECTION FLUID KENKO KE-823M"/>
+    <n v="57000"/>
+    <n v="0.13500000000000001"/>
+    <m/>
+    <n v="3549960"/>
+    <m/>
+    <m/>
+    <n v="43"/>
+    <n v="3"/>
+    <n v="4104000"/>
+    <n v="554040"/>
+    <n v="0"/>
+    <n v="554040"/>
+    <n v="3549960"/>
+    <s v=""/>
+    <m/>
+    <s v="CORRECTION FLUID KENKO KE-823MLSN57000"/>
   </r>
   <r>
     <x v="0"/>
@@ -6223,28 +6325,28 @@
     <s v=""/>
     <s v=" "/>
     <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <n v="144"/>
+    <s v="LSN"/>
+    <n v="1"/>
+    <s v="PENKENKE303"/>
+    <s v="GEL PEN KENKO KE-303 T-GEL TRIANGULAR"/>
+    <s v="GEL PEN KENKO KE-303 T-GEL TRIANGULAR HITAM"/>
+    <n v="21600"/>
+    <n v="0.13500000000000001"/>
+    <m/>
+    <n v="2690496"/>
+    <m/>
+    <m/>
+    <n v="43"/>
+    <n v="3"/>
+    <n v="3110400"/>
+    <n v="419904"/>
+    <n v="0"/>
+    <n v="419904"/>
+    <n v="2690496"/>
+    <s v=""/>
+    <m/>
+    <s v="GEL PEN KENKO KE-303 T-GEL TRIANGULAR HITAMLSN21600"/>
   </r>
   <r>
     <x v="0"/>
@@ -6281,38 +6383,38 @@
     <s v=""/>
   </r>
   <r>
-    <x v="0"/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=" "/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <x v="15"/>
+    <n v="23100015"/>
+    <d v="2023-10-17T00:00:00"/>
+    <n v="17"/>
+    <s v="G"/>
+    <s v="4630"/>
+    <s v="REJOAGUNG"/>
+    <s v="AM 23100015"/>
+    <s v="G 4630"/>
+    <s v="LILY JULIAWATI (REJO AGUNG) JOMBANG"/>
+    <n v="216"/>
+    <s v="SET"/>
+    <n v="3"/>
+    <s v="PWJK24WPANJANG"/>
+    <s v="PENSIL WARNA JOYKO CP-24PB (PANJANG)"/>
+    <s v="PENSIL WARNA JOYKO CP-24PB (PANJANG)"/>
+    <n v="21200"/>
+    <n v="0.125"/>
+    <m/>
+    <n v="4006800"/>
+    <s v="NOVI / CONDRO"/>
+    <m/>
+    <n v="47"/>
+    <n v="2"/>
+    <n v="4579200"/>
+    <n v="572400"/>
+    <n v="0"/>
+    <n v="572400"/>
+    <n v="4006800"/>
+    <n v="11503800"/>
+    <m/>
+    <s v="PENSIL WARNA JOYKO CP-24PB (PANJANG)SET21200"/>
   </r>
   <r>
     <x v="0"/>
@@ -6325,28 +6427,28 @@
     <s v=""/>
     <s v=" "/>
     <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <n v="720"/>
+    <s v="SET"/>
+    <n v="5"/>
+    <s v="OPJK12W"/>
+    <s v="CRAYON / OIL PASTEL JOYKO OP-12S PP CASE SEA WORLD"/>
+    <s v="CRAYON / OIL PASTEL JOYKO OP-12S PP CASE SEA WORLD"/>
+    <n v="11900"/>
+    <n v="0.125"/>
+    <m/>
+    <n v="7497000"/>
+    <m/>
+    <m/>
+    <n v="47"/>
+    <n v="2"/>
+    <n v="8568000"/>
+    <n v="1071000"/>
+    <n v="0"/>
+    <n v="1071000"/>
+    <n v="7497000"/>
+    <s v=""/>
+    <m/>
+    <s v="CRAYON / OIL PASTEL JOYKO OP-12S PP CASE SEA WORLDSET11900"/>
   </r>
   <r>
     <x v="0"/>
@@ -6383,38 +6485,38 @@
     <s v=""/>
   </r>
   <r>
-    <x v="0"/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=" "/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <x v="16"/>
+    <n v="23100016"/>
+    <d v="2023-10-17T00:00:00"/>
+    <n v="17"/>
+    <s v="ko"/>
+    <s v="4638"/>
+    <s v="ANUGERAH"/>
+    <s v="AM 23100016"/>
+    <s v="KO 4638"/>
+    <s v="CV PELITA JAYA (ANUGERAH SEJAHTERA) PURWOKERTO"/>
+    <n v="40"/>
+    <s v="LSN"/>
+    <n v="2"/>
+    <s v="CUTKENL500"/>
+    <s v="CUTTER 18 MM KENKO L-500 (BESAR)"/>
+    <s v="CUTTER 18 MM KENKO L-500 (BESAR)"/>
+    <n v="147600"/>
+    <n v="0.13500000000000001"/>
+    <m/>
+    <n v="5106960"/>
+    <s v="NOVI / CONDRO"/>
+    <m/>
+    <n v="50"/>
+    <n v="1"/>
+    <n v="5904000"/>
+    <n v="797040"/>
+    <n v="0"/>
+    <n v="797040"/>
+    <n v="5106960"/>
+    <n v="5106960"/>
+    <m/>
+    <s v="CUTTER 18 MM KENKO L-500 (BESAR)LSN147600"/>
   </r>
   <r>
     <x v="0"/>
@@ -6451,38 +6553,38 @@
     <s v=""/>
   </r>
   <r>
-    <x v="0"/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=" "/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <x v="17"/>
+    <n v="23100017"/>
+    <d v="2023-10-18T00:00:00"/>
+    <n v="18"/>
+    <s v="ko"/>
+    <s v="4511"/>
+    <s v="LANCAR"/>
+    <s v="AM 23100017"/>
+    <s v="KO 4511"/>
+    <s v="CV LANCAR JAYA SENTOSA MALANG"/>
+    <n v="1"/>
+    <s v="LSN"/>
+    <m/>
+    <s v="PWJK12WPANJANG"/>
+    <s v="PENSIL WARNA JOYKO CP-12PB (PANJANG)"/>
+    <s v="PENSIL WARNA JOYKO CP-12PB (PANJANG)"/>
+    <n v="127200"/>
+    <n v="0.125"/>
+    <m/>
+    <n v="111300"/>
+    <s v="NOVI / CONDRO"/>
+    <m/>
+    <n v="52"/>
+    <n v="2"/>
+    <n v="127200"/>
+    <n v="15900"/>
+    <n v="0"/>
+    <n v="15900"/>
+    <n v="111300"/>
+    <n v="744450"/>
+    <m/>
+    <s v="PENSIL WARNA JOYKO CP-12PB (PANJANG)LSN127200"/>
   </r>
   <r>
     <x v="0"/>
@@ -6495,28 +6597,28 @@
     <s v=""/>
     <s v=" "/>
     <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <n v="9"/>
+    <s v="LSN"/>
+    <m/>
+    <s v="PWJK12WPENDEK"/>
+    <s v="PENSIL WARNA JOYKO CP-S12 MINI (PENDEK)"/>
+    <s v="PENSIL WARNA JOYKO CP-S12 MINI (PENDEK)"/>
+    <n v="80400"/>
+    <n v="0.125"/>
+    <m/>
+    <n v="633150"/>
+    <m/>
+    <m/>
+    <n v="52"/>
+    <n v="2"/>
+    <n v="723600"/>
+    <n v="90450"/>
+    <n v="0"/>
+    <n v="90450"/>
+    <n v="633150"/>
+    <s v=""/>
+    <m/>
+    <s v="PENSIL WARNA JOYKO CP-S12 MINI (PENDEK)LSN80400"/>
   </r>
   <r>
     <x v="0"/>
@@ -13934,11 +14036,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A4:A16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:A23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="32">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="12">
+      <items count="19">
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
@@ -13949,6 +14051,13 @@
         <item x="8"/>
         <item x="9"/>
         <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
         <item x="0"/>
         <item t="default"/>
       </items>
@@ -13988,7 +14097,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="12">
+  <rowItems count="19">
     <i>
       <x/>
     </i>
@@ -14022,6 +14131,27 @@
     <i>
       <x v="10"/>
     </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -14030,7 +14160,7 @@
     <i/>
   </colItems>
   <formats count="1">
-    <format dxfId="62">
+    <format dxfId="28">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
   </formats>
@@ -14044,73 +14174,73 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:AF272" totalsRowCount="1" headerRowDxfId="98" dataDxfId="97" totalsRowDxfId="96">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:AF272" totalsRowCount="1" headerRowDxfId="97" dataDxfId="96" totalsRowDxfId="95">
   <autoFilter ref="A2:AF271"/>
   <tableColumns count="32">
-    <tableColumn id="16" name="//" dataDxfId="95" totalsRowDxfId="32">
+    <tableColumn id="16" name="//" dataDxfId="94" totalsRowDxfId="93">
       <calculatedColumnFormula>IF(Table1[[#This Row],[No. Invoice :]]="","",ROW())</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="h_No. Invoice :" dataDxfId="94" totalsRowDxfId="31">
+    <tableColumn id="18" name="h_No. Invoice :" dataDxfId="92" totalsRowDxfId="91">
       <calculatedColumnFormula>IF(Table1[Column3]="","",B$1+COUNT(INDIRECT("B$2:B"&amp;ROW()-1)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Tgl Invoice :" dataDxfId="93" totalsRowDxfId="30">
+    <tableColumn id="2" name="Tgl Invoice :" dataDxfId="90" totalsRowDxfId="89">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Column2]]="","",Table1[[#This Row],[Column2]]+C$1-1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" name="Column2" dataDxfId="92" totalsRowDxfId="29"/>
-    <tableColumn id="17" name="Column3" dataDxfId="91" totalsRowDxfId="28"/>
-    <tableColumn id="19" name="Column4" dataDxfId="90" totalsRowDxfId="27"/>
-    <tableColumn id="20" name="Column5" dataDxfId="89" totalsRowDxfId="26"/>
-    <tableColumn id="1" name="No. Invoice :" dataDxfId="88" totalsRowDxfId="25">
+    <tableColumn id="32" name="Column2" dataDxfId="88" totalsRowDxfId="87"/>
+    <tableColumn id="17" name="Column3" dataDxfId="86" totalsRowDxfId="85"/>
+    <tableColumn id="19" name="Column4" dataDxfId="84" totalsRowDxfId="83"/>
+    <tableColumn id="20" name="Column5" dataDxfId="82" totalsRowDxfId="81"/>
+    <tableColumn id="1" name="No. Invoice :" dataDxfId="80" totalsRowDxfId="79">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Kode Sales :" dataDxfId="87" totalsRowDxfId="24">
+    <tableColumn id="3" name="Kode Sales :" dataDxfId="78" totalsRowDxfId="77">
       <calculatedColumnFormula>CONCATENATE(UPPER(Table1[[#This Row],[Column3]])," ",Table1[[#This Row],[Column4]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Toko" dataDxfId="86" totalsRowDxfId="23">
+    <tableColumn id="4" name="Toko" dataDxfId="76" totalsRowDxfId="75">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Column5]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[Column5]]="","",MATCH(Table1[[#This Row],[Column5]],Table2[a],0)),))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Qty" dataDxfId="85" totalsRowDxfId="22"/>
-    <tableColumn id="6" name="Unit" dataDxfId="84" totalsRowDxfId="21"/>
-    <tableColumn id="7" name="C" dataDxfId="83" totalsRowDxfId="20"/>
-    <tableColumn id="8" name="h_Item Description" dataDxfId="82" totalsRowDxfId="19"/>
-    <tableColumn id="10" name="Column1" dataDxfId="81" totalsRowDxfId="18">
+    <tableColumn id="5" name="Qty" dataDxfId="74" totalsRowDxfId="73"/>
+    <tableColumn id="6" name="Unit" dataDxfId="72" totalsRowDxfId="71"/>
+    <tableColumn id="7" name="C" dataDxfId="70" totalsRowDxfId="69"/>
+    <tableColumn id="8" name="h_Item Description" dataDxfId="68" totalsRowDxfId="67"/>
+    <tableColumn id="10" name="Column1" dataDxfId="66" totalsRowDxfId="65">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Item Description" dataDxfId="80" totalsRowDxfId="17"/>
-    <tableColumn id="11" name="Unit Price" dataDxfId="79" totalsRowDxfId="16"/>
-    <tableColumn id="12" name="Disc 1" dataDxfId="78" totalsRowDxfId="15"/>
-    <tableColumn id="13" name="Disc 2" dataDxfId="77" totalsRowDxfId="14"/>
-    <tableColumn id="23" name="Amount" dataDxfId="76" totalsRowDxfId="13">
+    <tableColumn id="9" name="Item Description" dataDxfId="64" totalsRowDxfId="63"/>
+    <tableColumn id="11" name="Unit Price" dataDxfId="62" totalsRowDxfId="61"/>
+    <tableColumn id="12" name="Disc 1" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="13" name="Disc 2" dataDxfId="58" totalsRowDxfId="57"/>
+    <tableColumn id="23" name="Amount" dataDxfId="56" totalsRowDxfId="55">
       <calculatedColumnFormula>Table1[[#This Row],[h_hargasetelahdiskon]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="pembuat nota :" dataDxfId="75" totalsRowDxfId="12"/>
-    <tableColumn id="15" name="edited :" dataDxfId="74" totalsRowDxfId="11"/>
-    <tableColumn id="21" name="h_id" dataDxfId="73" totalsRowDxfId="10">
+    <tableColumn id="14" name="pembuat nota :" dataDxfId="54" totalsRowDxfId="53"/>
+    <tableColumn id="15" name="edited :" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="21" name="h_id" dataDxfId="50" totalsRowDxfId="49">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="h_jumlahbarang" dataDxfId="72" totalsRowDxfId="9">
+    <tableColumn id="22" name="h_jumlahbarang" dataDxfId="48" totalsRowDxfId="47">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="h_hargasebelumdiskon" dataDxfId="71" totalsRowDxfId="8">
+    <tableColumn id="24" name="h_hargasebelumdiskon" dataDxfId="46" totalsRowDxfId="45">
       <calculatedColumnFormula>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" name="h_disc 1" dataDxfId="70" totalsRowDxfId="7">
+    <tableColumn id="31" name="h_disc 1" dataDxfId="44" totalsRowDxfId="43">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" name="h_disc 2" dataDxfId="69" totalsRowDxfId="6">
+    <tableColumn id="30" name="h_disc 2" dataDxfId="42" totalsRowDxfId="41">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="h_diskon" dataDxfId="68" totalsRowDxfId="5">
+    <tableColumn id="25" name="h_diskon" dataDxfId="40" totalsRowDxfId="39">
       <calculatedColumnFormula>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="h_hargasetelahdiskon" dataDxfId="67" totalsRowDxfId="4">
+    <tableColumn id="26" name="h_hargasetelahdiskon" dataDxfId="38" totalsRowDxfId="37">
       <calculatedColumnFormula>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="Total Invoice" dataDxfId="66" totalsRowDxfId="3">
+    <tableColumn id="27" name="Total Invoice" dataDxfId="36" totalsRowDxfId="35">
       <calculatedColumnFormula>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="KETERANGAN" dataDxfId="65" totalsRowDxfId="2"/>
-    <tableColumn id="29" name="H_A1" dataDxfId="33" totalsRowDxfId="1">
+    <tableColumn id="28" name="KETERANGAN" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="29" name="H_A1" dataDxfId="32" totalsRowDxfId="31">
       <calculatedColumnFormula>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14119,74 +14249,74 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="pajak" displayName="pajak" ref="D4:P58" totalsRowCount="1" headerRowDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="pajak" displayName="pajak" ref="D4:P58" totalsRowCount="1" headerRowDxfId="27">
   <autoFilter ref="D4:P57"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="//" totalsRowLabel="Total" dataDxfId="60">
+    <tableColumn id="1" name="//" totalsRowLabel="Total" dataDxfId="26">
       <calculatedColumnFormula>IF(ROW()-(COUNTBLANK($D$1:$D$3)+1)&lt;=jNota,A5,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="No. Invoice :" dataDxfId="59">
+    <tableColumn id="2" name="No. Invoice :" dataDxfId="25">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[No. Invoice :],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Tgl Invoice :" dataDxfId="58">
+    <tableColumn id="3" name="Tgl Invoice :" dataDxfId="24">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Tgl Invoice :],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Kode Sales :" dataDxfId="57">
+    <tableColumn id="4" name="Kode Sales :" dataDxfId="23">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Kode Sales :],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Toko" dataDxfId="56">
+    <tableColumn id="5" name="Toko" dataDxfId="22">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Toko],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Total" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="54">
+    <tableColumn id="6" name="Total" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Diskon" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="52">
+    <tableColumn id="7" name="Diskon" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Sub Total" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="50">
+    <tableColumn id="8" name="Sub Total" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="PPN 11%" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="48">
+    <tableColumn id="9" name="PPN 11%" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14">
       <calculatedColumnFormula>IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Total Invoice" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="46">
+    <tableColumn id="10" name="Total Invoice" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12">
       <calculatedColumnFormula>pajak[[#This Row],[Sub Total]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="pembuat nota" dataDxfId="45">
+    <tableColumn id="14" name="pembuat nota" dataDxfId="11">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[pembuat nota :],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="edited" dataDxfId="44">
+    <tableColumn id="15" name="edited" dataDxfId="10">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",IF(INDEX(Table1[edited :],pajak[//]-offset)="","",INDEX(Table1[edited :],pajak[//]-offset)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="4" dataDxfId="43"/>
+    <tableColumn id="12" name="4" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="R4:X57" totalsRowShown="0" headerRowDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="R4:X57" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="R4:X57"/>
   <tableColumns count="7">
-    <tableColumn id="8" name="AM" dataDxfId="41">
+    <tableColumn id="8" name="AM" dataDxfId="7">
       <calculatedColumnFormula>Table4[[#Headers],[AM]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="---" dataDxfId="40">
+    <tableColumn id="2" name="---" dataDxfId="6">
       <calculatedColumnFormula>S$3+ROW()-5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="No. Invoice :" dataDxfId="39">
+    <tableColumn id="7" name="No. Invoice :" dataDxfId="5">
       <calculatedColumnFormula>IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Kode Sales :" dataDxfId="38">
+    <tableColumn id="9" name="Kode Sales :" dataDxfId="4">
       <calculatedColumnFormula>IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Tgl Invoice :" dataDxfId="37">
+    <tableColumn id="6" name="Tgl Invoice :" dataDxfId="3">
       <calculatedColumnFormula>IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Total Invoice" dataDxfId="36">
+    <tableColumn id="4" name="Total Invoice" dataDxfId="2">
       <calculatedColumnFormula>IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="pembuat nota" dataDxfId="35">
+    <tableColumn id="3" name="pembuat nota" dataDxfId="1">
       <calculatedColumnFormula>IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14205,7 +14335,7 @@
     <tableColumn id="2" name="b"/>
     <tableColumn id="3" name="c"/>
     <tableColumn id="4" name="d"/>
-    <tableColumn id="5" name="e" dataDxfId="34">
+    <tableColumn id="5" name="e" dataDxfId="0">
       <calculatedColumnFormula>CONCATENATE(Table2[[#This Row],[b]],IF(Table2[[#This Row],[c]]=""," ",CONCATENATE(" ",Table2[[#This Row],[c]]," ")),Table2[[#This Row],[d]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14503,8 +14633,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AF272"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T33" sqref="T33"/>
+    <sheetView topLeftCell="D16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14750,13 +14880,13 @@
         <v>5</v>
       </c>
       <c r="E4" s="280" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F4" s="282" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" s="280" t="s">
         <v>137</v>
-      </c>
-      <c r="G4" s="280" t="s">
-        <v>138</v>
       </c>
       <c r="H4" s="287" t="str">
         <f ca="1">IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</f>
@@ -14774,20 +14904,20 @@
         <v>50</v>
       </c>
       <c r="L4" s="280" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M4" s="280">
         <v>1</v>
       </c>
       <c r="N4" s="280" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O4" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
         <v>BINDER CLIP KENKO NO. 107</v>
       </c>
       <c r="P4" s="287" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q4" s="283">
         <v>31800</v>
@@ -14874,14 +15004,14 @@
         <v>130</v>
       </c>
       <c r="N5" s="280" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O5" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
         <v>GARISAN BESI (STAINLESS STEEL) KENKO 60 CM</v>
       </c>
       <c r="P5" s="287" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q5" s="283">
         <v>252000</v>
@@ -14945,16 +15075,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="D6" s="292" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E6" s="280" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F6" s="282" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G6" s="280" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H6" s="287" t="str">
         <f ca="1">IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</f>
@@ -15580,10 +15710,10 @@
         <v>9</v>
       </c>
       <c r="E14" s="280" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" s="282" t="s">
         <v>142</v>
-      </c>
-      <c r="F14" s="282" t="s">
-        <v>143</v>
       </c>
       <c r="G14" s="280" t="s">
         <v>77</v>
@@ -15607,14 +15737,14 @@
         <v>130</v>
       </c>
       <c r="N14" s="280" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O14" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
         <v>CORRECTION TAPE KENKO CT-902 (12M x 5MM)</v>
       </c>
       <c r="P14" s="280" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q14" s="283">
         <v>60000</v>
@@ -15757,13 +15887,13 @@
         <v>9</v>
       </c>
       <c r="E16" s="280" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F16" s="282" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G16" s="280" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H16" s="287" t="str">
         <f ca="1">IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</f>
@@ -15781,17 +15911,17 @@
         <v>20</v>
       </c>
       <c r="L16" s="280" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N16" s="280" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O16" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
         <v>BINDER CLIP KENKO NO. 155</v>
       </c>
       <c r="P16" s="280" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q16" s="283">
         <v>69000</v>
@@ -15876,14 +16006,14 @@
         <v>130</v>
       </c>
       <c r="N17" s="280" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O17" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
         <v>GARISAN BESI (STAINLESS STEEL) KENKO 50 CM</v>
       </c>
       <c r="P17" s="280" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q17" s="283">
         <v>215400</v>
@@ -16023,10 +16153,10 @@
         <v>9</v>
       </c>
       <c r="E19" s="280" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F19" s="282" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G19" s="280" t="s">
         <v>81</v>
@@ -16047,20 +16177,20 @@
         <v>36</v>
       </c>
       <c r="L19" s="280" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M19" s="280">
         <v>1</v>
       </c>
       <c r="N19" s="280" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O19" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
         <v>LEM STICK KENKO 15 GR (TANGGUNG) isi 20 pc</v>
       </c>
       <c r="P19" s="280" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q19" s="283">
         <v>72000</v>
@@ -16142,20 +16272,20 @@
         <v>36</v>
       </c>
       <c r="L20" s="280" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M20" s="280">
         <v>1</v>
       </c>
       <c r="N20" s="280" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O20" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
         <v>LEM STICK KENKO 8 GR (KECIL) isi 30 pc</v>
       </c>
       <c r="P20" s="280" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q20" s="283">
         <v>66000</v>
@@ -16240,14 +16370,14 @@
         <v>2</v>
       </c>
       <c r="N21" s="280" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O21" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
         <v>GEL PEN KENKO EASY GEL HITAM</v>
       </c>
       <c r="P21" s="280" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q21" s="283">
         <v>26100</v>
@@ -16332,14 +16462,14 @@
         <v>1</v>
       </c>
       <c r="N22" s="280" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O22" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
         <v>ISI CUTTER 9 MM KENKO A-100 (KECIL)</v>
       </c>
       <c r="P22" s="280" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="283">
         <v>32400</v>
@@ -16424,14 +16554,14 @@
         <v>3</v>
       </c>
       <c r="N23" s="280" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O23" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
         <v>ISI CUTTER 18 MM KENKO L-150 (BESAR)</v>
       </c>
       <c r="P23" s="280" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q23" s="283">
         <v>64800</v>
@@ -16583,10 +16713,10 @@
         <v>11</v>
       </c>
       <c r="E25" s="280" t="s">
+        <v>162</v>
+      </c>
+      <c r="F25" s="282" t="s">
         <v>163</v>
-      </c>
-      <c r="F25" s="282" t="s">
-        <v>164</v>
       </c>
       <c r="G25" s="280" t="s">
         <v>90</v>
@@ -16607,20 +16737,20 @@
         <v>288</v>
       </c>
       <c r="L25" s="280" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M25" s="280">
         <v>1</v>
       </c>
       <c r="N25" s="280" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O25" s="287" t="e">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
         <v>#N/A</v>
       </c>
       <c r="P25" s="290" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q25" s="283">
         <v>4800</v>
@@ -16704,20 +16834,20 @@
         <v>288</v>
       </c>
       <c r="L26" s="280" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M26" s="280">
         <v>1</v>
       </c>
       <c r="N26" s="280" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O26" s="287" t="e">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
         <v>#N/A</v>
       </c>
       <c r="P26" s="280" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q26" s="283">
         <v>4800</v>
@@ -16796,20 +16926,20 @@
         <v>576</v>
       </c>
       <c r="L27" s="280" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M27" s="280">
         <v>2</v>
       </c>
       <c r="N27" s="280" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O27" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
         <v>PAPER CLIP WARNA JOYKO C-3100</v>
       </c>
       <c r="P27" s="280" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q27" s="283">
         <v>3100</v>
@@ -16888,20 +17018,20 @@
         <v>72</v>
       </c>
       <c r="L28" s="280" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M28" s="280">
         <v>1</v>
       </c>
       <c r="N28" s="280" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O28" s="287" t="e">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
         <v>#N/A</v>
       </c>
       <c r="P28" s="280" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q28" s="283">
         <v>15800</v>
@@ -16980,20 +17110,20 @@
         <v>72</v>
       </c>
       <c r="L29" s="280" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M29" s="280">
         <v>1</v>
       </c>
       <c r="N29" s="280" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O29" s="287" t="e">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
         <v>#N/A</v>
       </c>
       <c r="P29" s="280" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q29" s="283">
         <v>15800</v>
@@ -17072,20 +17202,20 @@
         <v>360</v>
       </c>
       <c r="L30" s="280" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M30" s="280">
         <v>10</v>
       </c>
       <c r="N30" s="280" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O30" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
         <v>LEM STICK JOYKO 15 GR GS-104 TG (ANIMAL KINGDOM) isi 24 pc</v>
       </c>
       <c r="P30" s="280" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q30" s="283">
         <v>58800</v>
@@ -17170,14 +17300,14 @@
         <v>1</v>
       </c>
       <c r="N31" s="280" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O31" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
         <v>ISI CUTTER 9 MM KENKO A-100 (KECIL)</v>
       </c>
       <c r="P31" s="280" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q31" s="283">
         <v>32400</v>
@@ -17317,13 +17447,13 @@
         <v>14</v>
       </c>
       <c r="E33" s="280" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F33" s="282" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G33" s="280" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H33" s="287" t="str">
         <f ca="1">IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</f>
@@ -17341,20 +17471,20 @@
         <v>24</v>
       </c>
       <c r="L33" s="280" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M33" s="280">
         <v>1</v>
       </c>
       <c r="N33" s="280" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O33" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
         <v>PUNCH KENKO NO. 85XL</v>
       </c>
       <c r="P33" s="280" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q33" s="283">
         <v>59000</v>
@@ -17481,76 +17611,110 @@
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A35" s="287" t="str">
+      <c r="A35" s="287">
         <f ca="1">IF(Table1[[#This Row],[No. Invoice :]]="","",ROW())</f>
-        <v/>
-      </c>
-      <c r="B35" s="287" t="str">
+        <v>35</v>
+      </c>
+      <c r="B35" s="287">
         <f ca="1">IF(Table1[Column3]="","",B$1+COUNT(INDIRECT("B$2:B"&amp;ROW()-1)))</f>
-        <v/>
-      </c>
-      <c r="C35" s="281" t="str">
+        <v>23100011</v>
+      </c>
+      <c r="C35" s="281">
         <f>IF(Table1[[#This Row],[Column2]]="","",Table1[[#This Row],[Column2]]+C$1-1)</f>
-        <v/>
+        <v>45213</v>
+      </c>
+      <c r="D35" s="292">
+        <v>14</v>
+      </c>
+      <c r="E35" s="280" t="s">
+        <v>162</v>
+      </c>
+      <c r="F35" s="282" t="s">
+        <v>182</v>
+      </c>
+      <c r="G35" s="280" t="s">
+        <v>90</v>
       </c>
       <c r="H35" s="287" t="str">
         <f ca="1">IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</f>
-        <v/>
+        <v>AM 23100011</v>
       </c>
       <c r="I35" s="288" t="str">
         <f>CONCATENATE(UPPER(Table1[[#This Row],[Column3]])," ",Table1[[#This Row],[Column4]])</f>
-        <v xml:space="preserve"> </v>
+        <v>G 4615</v>
       </c>
       <c r="J35" s="287" t="str">
         <f>IF(Table1[[#This Row],[Column5]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[Column5]]="","",MATCH(Table1[[#This Row],[Column5]],Table2[a],0)),))</f>
-        <v/>
+        <v>LILY JULIAWATI (REJO AGUNG) JOMBANG</v>
+      </c>
+      <c r="K35" s="280">
+        <v>60</v>
+      </c>
+      <c r="L35" s="280" t="s">
+        <v>130</v>
+      </c>
+      <c r="M35" s="280">
+        <v>3</v>
+      </c>
+      <c r="N35" s="280" t="s">
+        <v>180</v>
       </c>
       <c r="O35" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q35" s="283"/>
-      <c r="R35" s="284"/>
-      <c r="T35" s="283" t="str">
+        <v>CUTTER 18 MM KENKO L-500 (BESAR)</v>
+      </c>
+      <c r="P35" s="280" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q35" s="283">
+        <v>147600</v>
+      </c>
+      <c r="R35" s="284">
+        <v>0.125</v>
+      </c>
+      <c r="T35" s="283">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W35" s="287" t="str">
+        <v>7749000</v>
+      </c>
+      <c r="U35" s="283" t="s">
+        <v>131</v>
+      </c>
+      <c r="W35" s="287">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X35" s="287" t="str">
+        <v>35</v>
+      </c>
+      <c r="X35" s="287">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y35" s="283" t="str">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z35" s="283" t="str">
+        <v>8856000</v>
+      </c>
+      <c r="Z35" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA35" s="283" t="str">
+        <v>1107000</v>
+      </c>
+      <c r="AA35" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB35" s="283" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC35" s="283" t="str">
+        <v>1107000</v>
+      </c>
+      <c r="AC35" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
-      </c>
-      <c r="AD35" s="283" t="str">
+        <v>7749000</v>
+      </c>
+      <c r="AD35" s="283">
         <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
+        <v>7749000</v>
       </c>
       <c r="AE35" s="283"/>
       <c r="AF35" s="283" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>CUTTER 18 MM KENKO L-500 (BESAR)LSN147600</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.25">
@@ -17627,76 +17791,110 @@
       </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A37" s="287" t="str">
+      <c r="A37" s="287">
         <f ca="1">IF(Table1[[#This Row],[No. Invoice :]]="","",ROW())</f>
-        <v/>
-      </c>
-      <c r="B37" s="287" t="str">
+        <v>37</v>
+      </c>
+      <c r="B37" s="287">
         <f ca="1">IF(Table1[Column3]="","",B$1+COUNT(INDIRECT("B$2:B"&amp;ROW()-1)))</f>
-        <v/>
-      </c>
-      <c r="C37" s="281" t="str">
+        <v>23100012</v>
+      </c>
+      <c r="C37" s="281">
         <f>IF(Table1[[#This Row],[Column2]]="","",Table1[[#This Row],[Column2]]+C$1-1)</f>
-        <v/>
+        <v>45213</v>
+      </c>
+      <c r="D37" s="292">
+        <v>14</v>
+      </c>
+      <c r="E37" s="280" t="s">
+        <v>141</v>
+      </c>
+      <c r="F37" s="282" t="s">
+        <v>185</v>
+      </c>
+      <c r="G37" s="280" t="s">
+        <v>81</v>
       </c>
       <c r="H37" s="287" t="str">
         <f ca="1">IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</f>
-        <v/>
+        <v>AM 23100012</v>
       </c>
       <c r="I37" s="288" t="str">
         <f>CONCATENATE(UPPER(Table1[[#This Row],[Column3]])," ",Table1[[#This Row],[Column4]])</f>
-        <v xml:space="preserve"> </v>
+        <v>KO 4616</v>
       </c>
       <c r="J37" s="287" t="str">
         <f>IF(Table1[[#This Row],[Column5]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[Column5]]="","",MATCH(Table1[[#This Row],[Column5]],Table2[a],0)),))</f>
-        <v/>
+        <v>CV PELITA JAYA (ANUGERAH SEJAHTERA) PURWOKERTO</v>
+      </c>
+      <c r="K37" s="280">
+        <v>144</v>
+      </c>
+      <c r="L37" s="280" t="s">
+        <v>130</v>
+      </c>
+      <c r="M37" s="280">
+        <v>1</v>
+      </c>
+      <c r="N37" s="280" t="s">
+        <v>186</v>
       </c>
       <c r="O37" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q37" s="283"/>
-      <c r="R37" s="284"/>
-      <c r="T37" s="283" t="str">
+        <v>GEL PEN JOYKO GP-265 Q-GEL</v>
+      </c>
+      <c r="P37" s="280" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q37" s="283">
+        <v>28200</v>
+      </c>
+      <c r="R37" s="284">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="T37" s="283">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W37" s="287" t="str">
+        <v>3512592</v>
+      </c>
+      <c r="U37" s="283" t="s">
+        <v>131</v>
+      </c>
+      <c r="W37" s="287">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X37" s="287" t="str">
+        <v>37</v>
+      </c>
+      <c r="X37" s="287">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y37" s="283" t="str">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z37" s="283" t="str">
+        <v>4060800</v>
+      </c>
+      <c r="Z37" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA37" s="283" t="str">
+        <v>548208</v>
+      </c>
+      <c r="AA37" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB37" s="283" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC37" s="283" t="str">
+        <v>548208</v>
+      </c>
+      <c r="AC37" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
-      </c>
-      <c r="AD37" s="283" t="str">
+        <v>3512592</v>
+      </c>
+      <c r="AD37" s="283">
         <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
+        <v>3512592</v>
       </c>
       <c r="AE37" s="283"/>
       <c r="AF37" s="283" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>GEL PEN JOYKO GP-265 Q-GEL HITAMLSN28200</v>
       </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.25">
@@ -17773,76 +17971,110 @@
       </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A39" s="287" t="str">
+      <c r="A39" s="287">
         <f ca="1">IF(Table1[[#This Row],[No. Invoice :]]="","",ROW())</f>
-        <v/>
-      </c>
-      <c r="B39" s="287" t="str">
+        <v>39</v>
+      </c>
+      <c r="B39" s="287">
         <f ca="1">IF(Table1[Column3]="","",B$1+COUNT(INDIRECT("B$2:B"&amp;ROW()-1)))</f>
-        <v/>
-      </c>
-      <c r="C39" s="281" t="str">
+        <v>23100013</v>
+      </c>
+      <c r="C39" s="281">
         <f>IF(Table1[[#This Row],[Column2]]="","",Table1[[#This Row],[Column2]]+C$1-1)</f>
-        <v/>
+        <v>45215</v>
+      </c>
+      <c r="D39" s="292">
+        <v>16</v>
+      </c>
+      <c r="E39" s="280" t="s">
+        <v>162</v>
+      </c>
+      <c r="F39" s="282" t="s">
+        <v>188</v>
+      </c>
+      <c r="G39" s="280" t="s">
+        <v>90</v>
       </c>
       <c r="H39" s="287" t="str">
         <f ca="1">IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</f>
-        <v/>
+        <v>AM 23100013</v>
       </c>
       <c r="I39" s="288" t="str">
         <f>CONCATENATE(UPPER(Table1[[#This Row],[Column3]])," ",Table1[[#This Row],[Column4]])</f>
-        <v xml:space="preserve"> </v>
+        <v>G 4620</v>
       </c>
       <c r="J39" s="287" t="str">
         <f>IF(Table1[[#This Row],[Column5]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[Column5]]="","",MATCH(Table1[[#This Row],[Column5]],Table2[a],0)),))</f>
-        <v/>
+        <v>LILY JULIAWATI (REJO AGUNG) JOMBANG</v>
+      </c>
+      <c r="K39" s="280">
+        <v>144</v>
+      </c>
+      <c r="L39" s="280" t="s">
+        <v>164</v>
+      </c>
+      <c r="M39" s="280">
+        <v>3</v>
+      </c>
+      <c r="N39" s="280" t="s">
+        <v>191</v>
       </c>
       <c r="O39" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q39" s="283"/>
-      <c r="R39" s="284"/>
-      <c r="T39" s="283" t="str">
+        <v>CRAYON / OIL PASTEL JOYKO OP-24S PP CASE SEA WORLD</v>
+      </c>
+      <c r="P39" s="280" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q39" s="283">
+        <v>29600</v>
+      </c>
+      <c r="R39" s="284">
+        <v>0.125</v>
+      </c>
+      <c r="T39" s="283">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W39" s="287" t="str">
+        <v>3729600</v>
+      </c>
+      <c r="U39" s="283" t="s">
+        <v>131</v>
+      </c>
+      <c r="W39" s="287">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X39" s="287" t="str">
+        <v>39</v>
+      </c>
+      <c r="X39" s="287">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y39" s="283" t="str">
+        <v>3</v>
+      </c>
+      <c r="Y39" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z39" s="283" t="str">
+        <v>4262400</v>
+      </c>
+      <c r="Z39" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA39" s="283" t="str">
+        <v>532800</v>
+      </c>
+      <c r="AA39" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB39" s="283" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC39" s="283" t="str">
+        <v>532800</v>
+      </c>
+      <c r="AC39" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
-      </c>
-      <c r="AD39" s="283" t="str">
+        <v>3729600</v>
+      </c>
+      <c r="AD39" s="283">
         <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
+        <v>8498700</v>
       </c>
       <c r="AE39" s="283"/>
       <c r="AF39" s="283" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>CRAYON / OIL PASTEL JOYKO OP-24S PP CASE SEA WORLDPCS29600</v>
       </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.25">
@@ -17870,43 +18102,62 @@
         <f>IF(Table1[[#This Row],[Column5]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[Column5]]="","",MATCH(Table1[[#This Row],[Column5]],Table2[a],0)),))</f>
         <v/>
       </c>
+      <c r="K40" s="280">
+        <v>72</v>
+      </c>
+      <c r="L40" s="280" t="s">
+        <v>164</v>
+      </c>
+      <c r="M40" s="280">
+        <v>2</v>
+      </c>
+      <c r="N40" s="280" t="s">
+        <v>192</v>
+      </c>
       <c r="O40" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q40" s="283"/>
-      <c r="R40" s="284"/>
-      <c r="T40" s="283" t="str">
+        <v>CRAYON / OIL PASTEL JOYKO OP-36S PP CASE SEA WORLD</v>
+      </c>
+      <c r="P40" s="280" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q40" s="283">
+        <v>41500</v>
+      </c>
+      <c r="R40" s="284">
+        <v>0.125</v>
+      </c>
+      <c r="T40" s="283">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W40" s="287" t="str">
+        <v>2614500</v>
+      </c>
+      <c r="W40" s="287">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X40" s="287" t="str">
+        <v>39</v>
+      </c>
+      <c r="X40" s="287">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y40" s="283" t="str">
+        <v>3</v>
+      </c>
+      <c r="Y40" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z40" s="283" t="str">
+        <v>2988000</v>
+      </c>
+      <c r="Z40" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA40" s="283" t="str">
+        <v>373500</v>
+      </c>
+      <c r="AA40" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB40" s="283" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC40" s="283" t="str">
+        <v>373500</v>
+      </c>
+      <c r="AC40" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>2614500</v>
       </c>
       <c r="AD40" s="283" t="str">
         <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -17915,7 +18166,7 @@
       <c r="AE40" s="283"/>
       <c r="AF40" s="283" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>CRAYON / OIL PASTEL JOYKO OP-36S PP CASE SEA WORLDPCS41500</v>
       </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.25">
@@ -17943,43 +18194,62 @@
         <f>IF(Table1[[#This Row],[Column5]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[Column5]]="","",MATCH(Table1[[#This Row],[Column5]],Table2[a],0)),))</f>
         <v/>
       </c>
+      <c r="K41" s="280">
+        <v>72</v>
+      </c>
+      <c r="L41" s="280" t="s">
+        <v>164</v>
+      </c>
+      <c r="M41" s="280">
+        <v>2</v>
+      </c>
+      <c r="N41" s="280" t="s">
+        <v>189</v>
+      </c>
       <c r="O41" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q41" s="283"/>
-      <c r="R41" s="284"/>
-      <c r="T41" s="283" t="str">
+        <v>CORRECTION FLUID JOYKO CF-S225</v>
+      </c>
+      <c r="P41" s="280" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q41" s="283">
+        <v>34200</v>
+      </c>
+      <c r="R41" s="284">
+        <v>0.125</v>
+      </c>
+      <c r="T41" s="283">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W41" s="287" t="str">
+        <v>2154600</v>
+      </c>
+      <c r="W41" s="287">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X41" s="287" t="str">
+        <v>39</v>
+      </c>
+      <c r="X41" s="287">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y41" s="283" t="str">
+        <v>3</v>
+      </c>
+      <c r="Y41" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z41" s="283" t="str">
+        <v>2462400</v>
+      </c>
+      <c r="Z41" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA41" s="283" t="str">
+        <v>307800</v>
+      </c>
+      <c r="AA41" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB41" s="283" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC41" s="283" t="str">
+        <v>307800</v>
+      </c>
+      <c r="AC41" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>2154600</v>
       </c>
       <c r="AD41" s="283" t="str">
         <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -17988,7 +18258,7 @@
       <c r="AE41" s="283"/>
       <c r="AF41" s="283" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>CORRECTION FLUID JOYKO CF-S225PCS34200</v>
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.25">
@@ -18065,76 +18335,110 @@
       </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A43" s="287" t="str">
+      <c r="A43" s="287">
         <f ca="1">IF(Table1[[#This Row],[No. Invoice :]]="","",ROW())</f>
-        <v/>
-      </c>
-      <c r="B43" s="287" t="str">
+        <v>43</v>
+      </c>
+      <c r="B43" s="287">
         <f ca="1">IF(Table1[Column3]="","",B$1+COUNT(INDIRECT("B$2:B"&amp;ROW()-1)))</f>
-        <v/>
-      </c>
-      <c r="C43" s="281" t="str">
+        <v>23100014</v>
+      </c>
+      <c r="C43" s="281">
         <f>IF(Table1[[#This Row],[Column2]]="","",Table1[[#This Row],[Column2]]+C$1-1)</f>
-        <v/>
+        <v>45215</v>
+      </c>
+      <c r="D43" s="292">
+        <v>16</v>
+      </c>
+      <c r="E43" s="280" t="s">
+        <v>141</v>
+      </c>
+      <c r="F43" s="282" t="s">
+        <v>195</v>
+      </c>
+      <c r="G43" s="280" t="s">
+        <v>81</v>
       </c>
       <c r="H43" s="287" t="str">
         <f ca="1">IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</f>
-        <v/>
+        <v>AM 23100014</v>
       </c>
       <c r="I43" s="288" t="str">
         <f>CONCATENATE(UPPER(Table1[[#This Row],[Column3]])," ",Table1[[#This Row],[Column4]])</f>
-        <v xml:space="preserve"> </v>
+        <v>KO 4626</v>
       </c>
       <c r="J43" s="287" t="str">
         <f>IF(Table1[[#This Row],[Column5]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[Column5]]="","",MATCH(Table1[[#This Row],[Column5]],Table2[a],0)),))</f>
-        <v/>
+        <v>CV PELITA JAYA (ANUGERAH SEJAHTERA) PURWOKERTO</v>
+      </c>
+      <c r="K43" s="280">
+        <v>72</v>
+      </c>
+      <c r="L43" s="280" t="s">
+        <v>130</v>
+      </c>
+      <c r="M43" s="280">
+        <v>1</v>
+      </c>
+      <c r="N43" s="280" t="s">
+        <v>196</v>
       </c>
       <c r="O43" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q43" s="283"/>
-      <c r="R43" s="284"/>
-      <c r="T43" s="283" t="str">
+        <v>CORRECTION FLUID KENKO KE-107M</v>
+      </c>
+      <c r="P43" s="280" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q43" s="283">
+        <v>55800</v>
+      </c>
+      <c r="R43" s="284">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="T43" s="283">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W43" s="287" t="str">
+        <v>3475224</v>
+      </c>
+      <c r="U43" s="283" t="s">
+        <v>131</v>
+      </c>
+      <c r="W43" s="287">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X43" s="287" t="str">
+        <v>43</v>
+      </c>
+      <c r="X43" s="287">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y43" s="283" t="str">
+        <v>3</v>
+      </c>
+      <c r="Y43" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z43" s="283" t="str">
+        <v>4017600</v>
+      </c>
+      <c r="Z43" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA43" s="283" t="str">
+        <v>542376</v>
+      </c>
+      <c r="AA43" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB43" s="283" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC43" s="283" t="str">
+        <v>542376</v>
+      </c>
+      <c r="AC43" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
-      </c>
-      <c r="AD43" s="283" t="str">
+        <v>3475224</v>
+      </c>
+      <c r="AD43" s="283">
         <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
+        <v>9715680</v>
       </c>
       <c r="AE43" s="283"/>
       <c r="AF43" s="283" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>CORRECTION FLUID KENKO KE-107MLSN55800</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
@@ -18162,43 +18466,62 @@
         <f>IF(Table1[[#This Row],[Column5]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[Column5]]="","",MATCH(Table1[[#This Row],[Column5]],Table2[a],0)),))</f>
         <v/>
       </c>
+      <c r="K44" s="280">
+        <v>72</v>
+      </c>
+      <c r="L44" s="280" t="s">
+        <v>130</v>
+      </c>
+      <c r="M44" s="280">
+        <v>1</v>
+      </c>
+      <c r="N44" s="280" t="s">
+        <v>197</v>
+      </c>
       <c r="O44" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q44" s="283"/>
-      <c r="R44" s="284"/>
-      <c r="T44" s="283" t="str">
+        <v>CORRECTION FLUID KENKO KE-823M</v>
+      </c>
+      <c r="P44" s="280" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q44" s="283">
+        <v>57000</v>
+      </c>
+      <c r="R44" s="284">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="T44" s="283">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W44" s="287" t="str">
+        <v>3549960</v>
+      </c>
+      <c r="W44" s="287">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X44" s="287" t="str">
+        <v>43</v>
+      </c>
+      <c r="X44" s="287">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y44" s="283" t="str">
+        <v>3</v>
+      </c>
+      <c r="Y44" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z44" s="283" t="str">
+        <v>4104000</v>
+      </c>
+      <c r="Z44" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA44" s="283" t="str">
+        <v>554040</v>
+      </c>
+      <c r="AA44" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB44" s="283" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC44" s="283" t="str">
+        <v>554040</v>
+      </c>
+      <c r="AC44" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>3549960</v>
       </c>
       <c r="AD44" s="283" t="str">
         <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -18207,7 +18530,7 @@
       <c r="AE44" s="283"/>
       <c r="AF44" s="283" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>CORRECTION FLUID KENKO KE-823MLSN57000</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
@@ -18235,43 +18558,62 @@
         <f>IF(Table1[[#This Row],[Column5]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[Column5]]="","",MATCH(Table1[[#This Row],[Column5]],Table2[a],0)),))</f>
         <v/>
       </c>
+      <c r="K45" s="280">
+        <v>144</v>
+      </c>
+      <c r="L45" s="280" t="s">
+        <v>130</v>
+      </c>
+      <c r="M45" s="280">
+        <v>1</v>
+      </c>
+      <c r="N45" s="280" t="s">
+        <v>198</v>
+      </c>
       <c r="O45" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q45" s="283"/>
-      <c r="R45" s="284"/>
-      <c r="T45" s="283" t="str">
+        <v>GEL PEN KENKO KE-303 T-GEL TRIANGULAR</v>
+      </c>
+      <c r="P45" s="280" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q45" s="283">
+        <v>21600</v>
+      </c>
+      <c r="R45" s="284">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="T45" s="283">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W45" s="287" t="str">
+        <v>2690496</v>
+      </c>
+      <c r="W45" s="287">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X45" s="287" t="str">
+        <v>43</v>
+      </c>
+      <c r="X45" s="287">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y45" s="283" t="str">
+        <v>3</v>
+      </c>
+      <c r="Y45" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z45" s="283" t="str">
+        <v>3110400</v>
+      </c>
+      <c r="Z45" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA45" s="283" t="str">
+        <v>419904</v>
+      </c>
+      <c r="AA45" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB45" s="283" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC45" s="283" t="str">
+        <v>419904</v>
+      </c>
+      <c r="AC45" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>2690496</v>
       </c>
       <c r="AD45" s="283" t="str">
         <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -18280,7 +18622,7 @@
       <c r="AE45" s="283"/>
       <c r="AF45" s="283" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>GEL PEN KENKO KE-303 T-GEL TRIANGULAR HITAMLSN21600</v>
       </c>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.25">
@@ -18357,76 +18699,110 @@
       </c>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A47" s="287" t="str">
+      <c r="A47" s="287">
         <f ca="1">IF(Table1[[#This Row],[No. Invoice :]]="","",ROW())</f>
-        <v/>
-      </c>
-      <c r="B47" s="287" t="str">
+        <v>47</v>
+      </c>
+      <c r="B47" s="287">
         <f ca="1">IF(Table1[Column3]="","",B$1+COUNT(INDIRECT("B$2:B"&amp;ROW()-1)))</f>
-        <v/>
-      </c>
-      <c r="C47" s="281" t="str">
+        <v>23100015</v>
+      </c>
+      <c r="C47" s="281">
         <f>IF(Table1[[#This Row],[Column2]]="","",Table1[[#This Row],[Column2]]+C$1-1)</f>
-        <v/>
+        <v>45216</v>
+      </c>
+      <c r="D47" s="292">
+        <v>17</v>
+      </c>
+      <c r="E47" s="280" t="s">
+        <v>162</v>
+      </c>
+      <c r="F47" s="282" t="s">
+        <v>202</v>
+      </c>
+      <c r="G47" s="280" t="s">
+        <v>90</v>
       </c>
       <c r="H47" s="287" t="str">
         <f ca="1">IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</f>
-        <v/>
+        <v>AM 23100015</v>
       </c>
       <c r="I47" s="288" t="str">
         <f>CONCATENATE(UPPER(Table1[[#This Row],[Column3]])," ",Table1[[#This Row],[Column4]])</f>
-        <v xml:space="preserve"> </v>
+        <v>G 4630</v>
       </c>
       <c r="J47" s="287" t="str">
         <f>IF(Table1[[#This Row],[Column5]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[Column5]]="","",MATCH(Table1[[#This Row],[Column5]],Table2[a],0)),))</f>
-        <v/>
+        <v>LILY JULIAWATI (REJO AGUNG) JOMBANG</v>
+      </c>
+      <c r="K47" s="280">
+        <v>216</v>
+      </c>
+      <c r="L47" s="280" t="s">
+        <v>203</v>
+      </c>
+      <c r="M47" s="280">
+        <v>3</v>
+      </c>
+      <c r="N47" s="280" t="s">
+        <v>204</v>
       </c>
       <c r="O47" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q47" s="283"/>
-      <c r="R47" s="284"/>
-      <c r="T47" s="283" t="str">
+        <v>PENSIL WARNA JOYKO CP-24PB (PANJANG)</v>
+      </c>
+      <c r="P47" s="280" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q47" s="283">
+        <v>21200</v>
+      </c>
+      <c r="R47" s="284">
+        <v>0.125</v>
+      </c>
+      <c r="T47" s="283">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W47" s="287" t="str">
+        <v>4006800</v>
+      </c>
+      <c r="U47" s="283" t="s">
+        <v>131</v>
+      </c>
+      <c r="W47" s="287">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X47" s="287" t="str">
+        <v>47</v>
+      </c>
+      <c r="X47" s="287">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y47" s="283" t="str">
+        <v>2</v>
+      </c>
+      <c r="Y47" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z47" s="283" t="str">
+        <v>4579200</v>
+      </c>
+      <c r="Z47" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA47" s="283" t="str">
+        <v>572400</v>
+      </c>
+      <c r="AA47" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB47" s="283" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC47" s="283" t="str">
+        <v>572400</v>
+      </c>
+      <c r="AC47" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
-      </c>
-      <c r="AD47" s="283" t="str">
+        <v>4006800</v>
+      </c>
+      <c r="AD47" s="283">
         <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
+        <v>11503800</v>
       </c>
       <c r="AE47" s="283"/>
       <c r="AF47" s="283" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>PENSIL WARNA JOYKO CP-24PB (PANJANG)SET21200</v>
       </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.25">
@@ -18454,43 +18830,62 @@
         <f>IF(Table1[[#This Row],[Column5]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[Column5]]="","",MATCH(Table1[[#This Row],[Column5]],Table2[a],0)),))</f>
         <v/>
       </c>
+      <c r="K48" s="280">
+        <v>720</v>
+      </c>
+      <c r="L48" s="280" t="s">
+        <v>203</v>
+      </c>
+      <c r="M48" s="280">
+        <v>5</v>
+      </c>
+      <c r="N48" s="280" t="s">
+        <v>205</v>
+      </c>
       <c r="O48" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q48" s="283"/>
-      <c r="R48" s="284"/>
-      <c r="T48" s="283" t="str">
+        <v>CRAYON / OIL PASTEL JOYKO OP-12S PP CASE SEA WORLD</v>
+      </c>
+      <c r="P48" s="280" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q48" s="283">
+        <v>11900</v>
+      </c>
+      <c r="R48" s="284">
+        <v>0.125</v>
+      </c>
+      <c r="T48" s="283">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W48" s="287" t="str">
+        <v>7497000</v>
+      </c>
+      <c r="W48" s="287">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X48" s="287" t="str">
+        <v>47</v>
+      </c>
+      <c r="X48" s="287">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y48" s="283" t="str">
+        <v>2</v>
+      </c>
+      <c r="Y48" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z48" s="283" t="str">
+        <v>8568000</v>
+      </c>
+      <c r="Z48" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA48" s="283" t="str">
+        <v>1071000</v>
+      </c>
+      <c r="AA48" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB48" s="283" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC48" s="283" t="str">
+        <v>1071000</v>
+      </c>
+      <c r="AC48" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>7497000</v>
       </c>
       <c r="AD48" s="283" t="str">
         <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -18499,7 +18894,7 @@
       <c r="AE48" s="283"/>
       <c r="AF48" s="283" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>CRAYON / OIL PASTEL JOYKO OP-12S PP CASE SEA WORLDSET11900</v>
       </c>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.25">
@@ -18576,76 +18971,110 @@
       </c>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A50" s="287" t="str">
+      <c r="A50" s="287">
         <f ca="1">IF(Table1[[#This Row],[No. Invoice :]]="","",ROW())</f>
-        <v/>
-      </c>
-      <c r="B50" s="287" t="str">
+        <v>50</v>
+      </c>
+      <c r="B50" s="287">
         <f ca="1">IF(Table1[Column3]="","",B$1+COUNT(INDIRECT("B$2:B"&amp;ROW()-1)))</f>
-        <v/>
-      </c>
-      <c r="C50" s="281" t="str">
+        <v>23100016</v>
+      </c>
+      <c r="C50" s="281">
         <f>IF(Table1[[#This Row],[Column2]]="","",Table1[[#This Row],[Column2]]+C$1-1)</f>
-        <v/>
+        <v>45216</v>
+      </c>
+      <c r="D50" s="292">
+        <v>17</v>
+      </c>
+      <c r="E50" s="280" t="s">
+        <v>132</v>
+      </c>
+      <c r="F50" s="282" t="s">
+        <v>208</v>
+      </c>
+      <c r="G50" s="280" t="s">
+        <v>81</v>
       </c>
       <c r="H50" s="287" t="str">
         <f ca="1">IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</f>
-        <v/>
+        <v>AM 23100016</v>
       </c>
       <c r="I50" s="288" t="str">
         <f>CONCATENATE(UPPER(Table1[[#This Row],[Column3]])," ",Table1[[#This Row],[Column4]])</f>
-        <v xml:space="preserve"> </v>
+        <v>KO 4638</v>
       </c>
       <c r="J50" s="287" t="str">
         <f>IF(Table1[[#This Row],[Column5]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[Column5]]="","",MATCH(Table1[[#This Row],[Column5]],Table2[a],0)),))</f>
-        <v/>
+        <v>CV PELITA JAYA (ANUGERAH SEJAHTERA) PURWOKERTO</v>
+      </c>
+      <c r="K50" s="280">
+        <v>40</v>
+      </c>
+      <c r="L50" s="280" t="s">
+        <v>130</v>
+      </c>
+      <c r="M50" s="280">
+        <v>2</v>
+      </c>
+      <c r="N50" s="280" t="s">
+        <v>180</v>
       </c>
       <c r="O50" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q50" s="283"/>
-      <c r="R50" s="284"/>
-      <c r="T50" s="283" t="str">
+        <v>CUTTER 18 MM KENKO L-500 (BESAR)</v>
+      </c>
+      <c r="P50" s="280" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q50" s="283">
+        <v>147600</v>
+      </c>
+      <c r="R50" s="284">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="T50" s="283">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W50" s="287" t="str">
+        <v>5106960</v>
+      </c>
+      <c r="U50" s="283" t="s">
+        <v>131</v>
+      </c>
+      <c r="W50" s="287">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X50" s="287" t="str">
+        <v>50</v>
+      </c>
+      <c r="X50" s="287">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y50" s="283" t="str">
+        <v>1</v>
+      </c>
+      <c r="Y50" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z50" s="283" t="str">
+        <v>5904000</v>
+      </c>
+      <c r="Z50" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA50" s="283" t="str">
+        <v>797040</v>
+      </c>
+      <c r="AA50" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB50" s="283" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC50" s="283" t="str">
+        <v>797040</v>
+      </c>
+      <c r="AC50" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
-      </c>
-      <c r="AD50" s="283" t="str">
+        <v>5106960</v>
+      </c>
+      <c r="AD50" s="283">
         <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
+        <v>5106960</v>
       </c>
       <c r="AE50" s="283"/>
       <c r="AF50" s="283" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>CUTTER 18 MM KENKO L-500 (BESAR)LSN147600</v>
       </c>
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.25">
@@ -18722,76 +19151,107 @@
       </c>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A52" s="287" t="str">
+      <c r="A52" s="287">
         <f ca="1">IF(Table1[[#This Row],[No. Invoice :]]="","",ROW())</f>
-        <v/>
-      </c>
-      <c r="B52" s="287" t="str">
+        <v>52</v>
+      </c>
+      <c r="B52" s="287">
         <f ca="1">IF(Table1[Column3]="","",B$1+COUNT(INDIRECT("B$2:B"&amp;ROW()-1)))</f>
-        <v/>
-      </c>
-      <c r="C52" s="281" t="str">
+        <v>23100017</v>
+      </c>
+      <c r="C52" s="281">
         <f>IF(Table1[[#This Row],[Column2]]="","",Table1[[#This Row],[Column2]]+C$1-1)</f>
-        <v/>
+        <v>45217</v>
+      </c>
+      <c r="D52" s="292">
+        <v>18</v>
+      </c>
+      <c r="E52" s="280" t="s">
+        <v>132</v>
+      </c>
+      <c r="F52" s="282" t="s">
+        <v>209</v>
+      </c>
+      <c r="G52" s="280" t="s">
+        <v>91</v>
       </c>
       <c r="H52" s="287" t="str">
         <f ca="1">IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</f>
-        <v/>
+        <v>AM 23100017</v>
       </c>
       <c r="I52" s="288" t="str">
         <f>CONCATENATE(UPPER(Table1[[#This Row],[Column3]])," ",Table1[[#This Row],[Column4]])</f>
-        <v xml:space="preserve"> </v>
+        <v>KO 4511</v>
       </c>
       <c r="J52" s="287" t="str">
         <f>IF(Table1[[#This Row],[Column5]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[Column5]]="","",MATCH(Table1[[#This Row],[Column5]],Table2[a],0)),))</f>
-        <v/>
+        <v>CV LANCAR JAYA SENTOSA MALANG</v>
+      </c>
+      <c r="K52" s="280">
+        <v>1</v>
+      </c>
+      <c r="L52" s="280" t="s">
+        <v>130</v>
+      </c>
+      <c r="N52" s="280" t="s">
+        <v>210</v>
       </c>
       <c r="O52" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q52" s="283"/>
-      <c r="R52" s="284"/>
-      <c r="T52" s="283" t="str">
+        <v>PENSIL WARNA JOYKO CP-12PB (PANJANG)</v>
+      </c>
+      <c r="P52" s="280" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q52" s="283">
+        <v>127200</v>
+      </c>
+      <c r="R52" s="284">
+        <v>0.125</v>
+      </c>
+      <c r="T52" s="283">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W52" s="287" t="str">
+        <v>111300</v>
+      </c>
+      <c r="U52" s="283" t="s">
+        <v>131</v>
+      </c>
+      <c r="W52" s="287">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X52" s="287" t="str">
+        <v>52</v>
+      </c>
+      <c r="X52" s="287">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y52" s="283" t="str">
+        <v>2</v>
+      </c>
+      <c r="Y52" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z52" s="283" t="str">
+        <v>127200</v>
+      </c>
+      <c r="Z52" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA52" s="283" t="str">
+        <v>15900</v>
+      </c>
+      <c r="AA52" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB52" s="283" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC52" s="283" t="str">
+        <v>15900</v>
+      </c>
+      <c r="AC52" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
-      </c>
-      <c r="AD52" s="283" t="str">
+        <v>111300</v>
+      </c>
+      <c r="AD52" s="283">
         <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
+        <v>744450</v>
       </c>
       <c r="AE52" s="283"/>
       <c r="AF52" s="283" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>PENSIL WARNA JOYKO CP-12PB (PANJANG)LSN127200</v>
       </c>
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.25">
@@ -18819,43 +19279,59 @@
         <f>IF(Table1[[#This Row],[Column5]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[Column5]]="","",MATCH(Table1[[#This Row],[Column5]],Table2[a],0)),))</f>
         <v/>
       </c>
+      <c r="K53" s="280">
+        <v>9</v>
+      </c>
+      <c r="L53" s="280" t="s">
+        <v>130</v>
+      </c>
+      <c r="N53" s="280" t="s">
+        <v>211</v>
+      </c>
       <c r="O53" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q53" s="283"/>
-      <c r="R53" s="284"/>
-      <c r="T53" s="283" t="str">
+        <v>PENSIL WARNA JOYKO CP-S12 MINI (PENDEK)</v>
+      </c>
+      <c r="P53" s="280" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q53" s="283">
+        <v>80400</v>
+      </c>
+      <c r="R53" s="284">
+        <v>0.125</v>
+      </c>
+      <c r="T53" s="283">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W53" s="287" t="str">
+        <v>633150</v>
+      </c>
+      <c r="W53" s="287">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X53" s="287" t="str">
+        <v>52</v>
+      </c>
+      <c r="X53" s="287">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y53" s="283" t="str">
+        <v>2</v>
+      </c>
+      <c r="Y53" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z53" s="283" t="str">
+        <v>723600</v>
+      </c>
+      <c r="Z53" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA53" s="283" t="str">
+        <v>90450</v>
+      </c>
+      <c r="AA53" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB53" s="283" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC53" s="283" t="str">
+        <v>90450</v>
+      </c>
+      <c r="AC53" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>633150</v>
       </c>
       <c r="AD53" s="283" t="str">
         <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -18864,7 +19340,7 @@
       <c r="AE53" s="283"/>
       <c r="AF53" s="283" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>PENSIL WARNA JOYKO CP-S12 MINI (PENDEK)LSN80400</v>
       </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.25">
@@ -34821,10 +35297,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="P58">
-    <cfRule type="duplicateValues" dxfId="100" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P25">
-    <cfRule type="duplicateValues" dxfId="99" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="14" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -34839,8 +35315,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AA58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34864,7 +35340,9 @@
     <col min="18" max="18" width="7.28515625" customWidth="1"/>
     <col min="19" max="19" width="9" customWidth="1"/>
     <col min="20" max="20" width="12.85546875" style="183" customWidth="1"/>
-    <col min="21" max="23" width="6.140625" style="183" customWidth="1"/>
+    <col min="21" max="21" width="6.140625" style="183" customWidth="1"/>
+    <col min="22" max="22" width="10.28515625" style="183" customWidth="1"/>
+    <col min="23" max="23" width="6.140625" style="183" customWidth="1"/>
     <col min="24" max="24" width="10.5703125" style="183" customWidth="1"/>
     <col min="26" max="26" width="14.5703125" customWidth="1"/>
     <col min="27" max="27" width="15.28515625" bestFit="1" customWidth="1"/>
@@ -34892,7 +35370,10 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="H2" t="s">
-        <v>132</v>
+        <v>183</v>
+      </c>
+      <c r="I2" s="87" t="s">
+        <v>184</v>
       </c>
       <c r="U2" s="183">
         <v>4</v>
@@ -34910,11 +35391,11 @@
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E3">
         <f ca="1">COUNT(Table1[//])</f>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H3" s="294" t="str">
         <f>"["&amp;H2&amp;".xlsx]Invoice"</f>
-        <v>[09-Hitung FP Keluar September 2023.xlsx]Invoice</v>
+        <v>[10-Hitung FP Keluar Oktober 2023.xlsx]Invoice</v>
       </c>
       <c r="I3" s="296"/>
       <c r="O3" s="85">
@@ -34923,7 +35404,7 @@
       </c>
       <c r="R3" t="str">
         <f>"'"&amp;pointer&amp;"'"&amp;"!$"&amp;1:1&amp;":$"&amp;1:1</f>
-        <v>'[09-Hitung FP Keluar September 2023.xlsx]Invoice'!$D:$D</v>
+        <v>'[10-Hitung FP Keluar Oktober 2023.xlsx]Invoice'!$D:$D</v>
       </c>
       <c r="S3">
         <f>NOTA!B1</f>
@@ -34931,23 +35412,23 @@
       </c>
       <c r="T3" t="str">
         <f>"'"&amp;pointer&amp;"'"&amp;"!$"&amp;1:1&amp;":$"&amp;1:1</f>
-        <v>'[09-Hitung FP Keluar September 2023.xlsx]Invoice'!$E:$E</v>
+        <v>'[10-Hitung FP Keluar Oktober 2023.xlsx]Invoice'!$E:$E</v>
       </c>
       <c r="U3" t="str">
         <f>"'"&amp;pointer&amp;"'"&amp;"!$"&amp;1:1&amp;":$"&amp;1:1</f>
-        <v>'[09-Hitung FP Keluar September 2023.xlsx]Invoice'!$D:$D</v>
+        <v>'[10-Hitung FP Keluar Oktober 2023.xlsx]Invoice'!$D:$D</v>
       </c>
       <c r="V3" t="str">
         <f>"'"&amp;pointer&amp;"'"&amp;"!$"&amp;1:1&amp;":$"&amp;1:1</f>
-        <v>'[09-Hitung FP Keluar September 2023.xlsx]Invoice'!$D:$D</v>
+        <v>'[10-Hitung FP Keluar Oktober 2023.xlsx]Invoice'!$D:$D</v>
       </c>
       <c r="W3" t="str">
         <f>"'"&amp;pointer&amp;"'"&amp;"!$"&amp;1:1&amp;":$"&amp;1:1</f>
-        <v>'[09-Hitung FP Keluar September 2023.xlsx]Invoice'!$K:$K</v>
+        <v>'[10-Hitung FP Keluar Oktober 2023.xlsx]Invoice'!$K:$K</v>
       </c>
       <c r="X3" t="str">
         <f>"'"&amp;pointer&amp;"'"&amp;"!$"&amp;1:1&amp;":$"&amp;1:1</f>
-        <v>'[09-Hitung FP Keluar September 2023.xlsx]Invoice'!$J:$J</v>
+        <v>'[10-Hitung FP Keluar Oktober 2023.xlsx]Invoice'!$J:$J</v>
       </c>
     </row>
     <row r="4" spans="1:27" s="86" customFormat="1" x14ac:dyDescent="0.25">
@@ -35022,7 +35503,7 @@
       </c>
       <c r="AA4" s="278">
         <f ca="1">SUM(pajak[Total Invoice])</f>
-        <v>56846142</v>
+        <v>103677324</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
@@ -35111,7 +35592,7 @@
       </c>
       <c r="AA5" s="87">
         <f ca="1">SUM(pajak[PPN 11%])</f>
-        <v>5633401.4594594594</v>
+        <v>10274329.405405406</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
@@ -35197,7 +35678,7 @@
       </c>
       <c r="AA6" s="87">
         <f ca="1">(AA4/1.11)*11%</f>
-        <v>5633401.4594594594</v>
+        <v>10274329.405405404</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
@@ -35857,50 +36338,52 @@
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="291"/>
-      <c r="D15" s="85" t="str">
+      <c r="A15" s="291">
+        <v>35</v>
+      </c>
+      <c r="D15" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>35</v>
       </c>
       <c r="E15" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[No. Invoice :],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="F15" s="88" t="str">
+        <v>AM 23100011</v>
+      </c>
+      <c r="F15" s="88">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Tgl Invoice :],pajak[//]-offset))</f>
-        <v/>
+        <v>45213</v>
       </c>
       <c r="G15" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Kode Sales :],pajak[//]-offset))</f>
-        <v/>
+        <v>G 4615</v>
       </c>
       <c r="H15" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Toko],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="I15" s="87" t="str">
+        <v>LILY JULIAWATI (REJO AGUNG) JOMBANG</v>
+      </c>
+      <c r="I15" s="87">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</f>
-        <v/>
-      </c>
-      <c r="J15" s="87" t="str">
+        <v>8856000</v>
+      </c>
+      <c r="J15" s="87">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</f>
-        <v/>
-      </c>
-      <c r="K15" s="87" t="str">
+        <v>1107000</v>
+      </c>
+      <c r="K15" s="87">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
-      </c>
-      <c r="L15" s="87" t="str">
+        <v>7749000</v>
+      </c>
+      <c r="L15" s="87">
         <f ca="1">IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</f>
-        <v/>
-      </c>
-      <c r="M15" s="87" t="str">
+        <v>767918.91891891882</v>
+      </c>
+      <c r="M15" s="87">
         <f ca="1">pajak[[#This Row],[Sub Total]]</f>
-        <v/>
+        <v>7749000</v>
       </c>
       <c r="N15" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[pembuat nota :],pajak[//]-offset))</f>
-        <v/>
+        <v>NOVI / CONDRO</v>
       </c>
       <c r="O15" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",IF(INDEX(Table1[edited :],pajak[//]-offset)="","",INDEX(Table1[edited :],pajak[//]-offset)))</f>
@@ -35915,9 +36398,9 @@
         <f t="shared" si="1"/>
         <v>23100011</v>
       </c>
-      <c r="T15" s="183" t="b">
+      <c r="T15" s="183" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="U15" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
@@ -35937,52 +36420,52 @@
       </c>
     </row>
     <row r="16" spans="1:27" s="298" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="291" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="299" t="str">
+      <c r="A16" s="291">
+        <v>37</v>
+      </c>
+      <c r="D16" s="299">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>37</v>
       </c>
       <c r="E16" s="298" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[No. Invoice :],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="F16" s="300" t="str">
+        <v>AM 23100012</v>
+      </c>
+      <c r="F16" s="300">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Tgl Invoice :],pajak[//]-offset))</f>
-        <v/>
+        <v>45213</v>
       </c>
       <c r="G16" s="299" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Kode Sales :],pajak[//]-offset))</f>
-        <v/>
+        <v>KO 4616</v>
       </c>
       <c r="H16" s="299" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Toko],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="I16" s="301" t="str">
+        <v>CV PELITA JAYA (ANUGERAH SEJAHTERA) PURWOKERTO</v>
+      </c>
+      <c r="I16" s="301">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</f>
-        <v/>
-      </c>
-      <c r="J16" s="301" t="str">
+        <v>4060800</v>
+      </c>
+      <c r="J16" s="301">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</f>
-        <v/>
-      </c>
-      <c r="K16" s="301" t="str">
+        <v>548208</v>
+      </c>
+      <c r="K16" s="301">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
-      </c>
-      <c r="L16" s="301" t="str">
+        <v>3512592</v>
+      </c>
+      <c r="L16" s="301">
         <f ca="1">IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</f>
-        <v/>
-      </c>
-      <c r="M16" s="301" t="str">
+        <v>348094.70270270266</v>
+      </c>
+      <c r="M16" s="301">
         <f ca="1">pajak[[#This Row],[Sub Total]]</f>
-        <v/>
+        <v>3512592</v>
       </c>
       <c r="N16" s="299" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[pembuat nota :],pajak[//]-offset))</f>
-        <v/>
+        <v>NOVI / CONDRO</v>
       </c>
       <c r="O16" s="299" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",IF(INDEX(Table1[edited :],pajak[//]-offset)="","",INDEX(Table1[edited :],pajak[//]-offset)))</f>
@@ -35998,9 +36481,9 @@
         <f t="shared" si="1"/>
         <v>23100012</v>
       </c>
-      <c r="T16" s="302" t="b">
+      <c r="T16" s="302" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="U16" s="302" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
@@ -36019,50 +36502,53 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="D17" s="85" t="str">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="291">
+        <v>39</v>
+      </c>
+      <c r="D17" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>39</v>
       </c>
       <c r="E17" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[No. Invoice :],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="F17" s="88" t="str">
+        <v>AM 23100013</v>
+      </c>
+      <c r="F17" s="88">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Tgl Invoice :],pajak[//]-offset))</f>
-        <v/>
+        <v>45215</v>
       </c>
       <c r="G17" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Kode Sales :],pajak[//]-offset))</f>
-        <v/>
+        <v>G 4620</v>
       </c>
       <c r="H17" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Toko],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="I17" s="87" t="str">
+        <v>LILY JULIAWATI (REJO AGUNG) JOMBANG</v>
+      </c>
+      <c r="I17" s="87">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</f>
-        <v/>
-      </c>
-      <c r="J17" s="87" t="str">
+        <v>9712800</v>
+      </c>
+      <c r="J17" s="87">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</f>
-        <v/>
-      </c>
-      <c r="K17" s="87" t="str">
+        <v>1214100</v>
+      </c>
+      <c r="K17" s="87">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
-      </c>
-      <c r="L17" s="87" t="str">
+        <v>8498700</v>
+      </c>
+      <c r="L17" s="87">
         <f ca="1">IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</f>
-        <v/>
-      </c>
-      <c r="M17" s="87" t="str">
+        <v>842213.51351351349</v>
+      </c>
+      <c r="M17" s="87">
         <f ca="1">pajak[[#This Row],[Sub Total]]</f>
-        <v/>
+        <v>8498700</v>
       </c>
       <c r="N17" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[pembuat nota :],pajak[//]-offset))</f>
-        <v/>
+        <v>NOVI / CONDRO</v>
       </c>
       <c r="O17" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",IF(INDEX(Table1[edited :],pajak[//]-offset)="","",INDEX(Table1[edited :],pajak[//]-offset)))</f>
@@ -36077,9 +36563,9 @@
         <f t="shared" si="1"/>
         <v>23100013</v>
       </c>
-      <c r="T17" s="183" t="b">
+      <c r="T17" s="183" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="U17" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
@@ -36098,50 +36584,53 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="D18" s="85" t="str">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="291">
+        <v>43</v>
+      </c>
+      <c r="D18" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>43</v>
       </c>
       <c r="E18" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[No. Invoice :],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="F18" s="88" t="str">
+        <v>AM 23100014</v>
+      </c>
+      <c r="F18" s="88">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Tgl Invoice :],pajak[//]-offset))</f>
-        <v/>
+        <v>45215</v>
       </c>
       <c r="G18" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Kode Sales :],pajak[//]-offset))</f>
-        <v/>
+        <v>KO 4626</v>
       </c>
       <c r="H18" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Toko],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="I18" s="87" t="str">
+        <v>CV PELITA JAYA (ANUGERAH SEJAHTERA) PURWOKERTO</v>
+      </c>
+      <c r="I18" s="87">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</f>
-        <v/>
-      </c>
-      <c r="J18" s="87" t="str">
+        <v>11232000</v>
+      </c>
+      <c r="J18" s="87">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</f>
-        <v/>
-      </c>
-      <c r="K18" s="87" t="str">
+        <v>1516320</v>
+      </c>
+      <c r="K18" s="87">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
-      </c>
-      <c r="L18" s="87" t="str">
+        <v>9715680</v>
+      </c>
+      <c r="L18" s="87">
         <f ca="1">IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</f>
-        <v/>
-      </c>
-      <c r="M18" s="87" t="str">
+        <v>962815.13513513503</v>
+      </c>
+      <c r="M18" s="87">
         <f ca="1">pajak[[#This Row],[Sub Total]]</f>
-        <v/>
+        <v>9715680</v>
       </c>
       <c r="N18" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[pembuat nota :],pajak[//]-offset))</f>
-        <v/>
+        <v>NOVI / CONDRO</v>
       </c>
       <c r="O18" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",IF(INDEX(Table1[edited :],pajak[//]-offset)="","",INDEX(Table1[edited :],pajak[//]-offset)))</f>
@@ -36156,9 +36645,9 @@
         <f t="shared" si="1"/>
         <v>23100014</v>
       </c>
-      <c r="T18" s="183" t="b">
+      <c r="T18" s="183" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="U18" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
@@ -36177,50 +36666,53 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="D19" s="85" t="str">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="291">
+        <v>47</v>
+      </c>
+      <c r="D19" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>47</v>
       </c>
       <c r="E19" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[No. Invoice :],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="F19" s="88" t="str">
+        <v>AM 23100015</v>
+      </c>
+      <c r="F19" s="88">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Tgl Invoice :],pajak[//]-offset))</f>
-        <v/>
+        <v>45216</v>
       </c>
       <c r="G19" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Kode Sales :],pajak[//]-offset))</f>
-        <v/>
+        <v>G 4630</v>
       </c>
       <c r="H19" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Toko],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="I19" s="87" t="str">
+        <v>LILY JULIAWATI (REJO AGUNG) JOMBANG</v>
+      </c>
+      <c r="I19" s="87">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</f>
-        <v/>
-      </c>
-      <c r="J19" s="87" t="str">
+        <v>13147200</v>
+      </c>
+      <c r="J19" s="87">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</f>
-        <v/>
-      </c>
-      <c r="K19" s="87" t="str">
+        <v>1643400</v>
+      </c>
+      <c r="K19" s="87">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
-      </c>
-      <c r="L19" s="87" t="str">
+        <v>11503800</v>
+      </c>
+      <c r="L19" s="87">
         <f ca="1">IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</f>
-        <v/>
-      </c>
-      <c r="M19" s="87" t="str">
+        <v>1140016.2162162161</v>
+      </c>
+      <c r="M19" s="87">
         <f ca="1">pajak[[#This Row],[Sub Total]]</f>
-        <v/>
+        <v>11503800</v>
       </c>
       <c r="N19" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[pembuat nota :],pajak[//]-offset))</f>
-        <v/>
+        <v>NOVI / CONDRO</v>
       </c>
       <c r="O19" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",IF(INDEX(Table1[edited :],pajak[//]-offset)="","",INDEX(Table1[edited :],pajak[//]-offset)))</f>
@@ -36235,9 +36727,9 @@
         <f t="shared" si="1"/>
         <v>23100015</v>
       </c>
-      <c r="T19" s="183" t="b">
+      <c r="T19" s="183" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="U19" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
@@ -36256,50 +36748,53 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="D20" s="85" t="str">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="291">
+        <v>50</v>
+      </c>
+      <c r="D20" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>50</v>
       </c>
       <c r="E20" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[No. Invoice :],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="F20" s="88" t="str">
+        <v>AM 23100016</v>
+      </c>
+      <c r="F20" s="88">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Tgl Invoice :],pajak[//]-offset))</f>
-        <v/>
+        <v>45216</v>
       </c>
       <c r="G20" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Kode Sales :],pajak[//]-offset))</f>
-        <v/>
+        <v>KO 4638</v>
       </c>
       <c r="H20" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Toko],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="I20" s="87" t="str">
+        <v>CV PELITA JAYA (ANUGERAH SEJAHTERA) PURWOKERTO</v>
+      </c>
+      <c r="I20" s="87">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</f>
-        <v/>
-      </c>
-      <c r="J20" s="87" t="str">
+        <v>5904000</v>
+      </c>
+      <c r="J20" s="87">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</f>
-        <v/>
-      </c>
-      <c r="K20" s="87" t="str">
+        <v>797040</v>
+      </c>
+      <c r="K20" s="87">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
-      </c>
-      <c r="L20" s="87" t="str">
+        <v>5106960</v>
+      </c>
+      <c r="L20" s="87">
         <f ca="1">IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</f>
-        <v/>
-      </c>
-      <c r="M20" s="87" t="str">
+        <v>506095.13513513509</v>
+      </c>
+      <c r="M20" s="87">
         <f ca="1">pajak[[#This Row],[Sub Total]]</f>
-        <v/>
+        <v>5106960</v>
       </c>
       <c r="N20" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[pembuat nota :],pajak[//]-offset))</f>
-        <v/>
+        <v>NOVI / CONDRO</v>
       </c>
       <c r="O20" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",IF(INDEX(Table1[edited :],pajak[//]-offset)="","",INDEX(Table1[edited :],pajak[//]-offset)))</f>
@@ -36314,9 +36809,9 @@
         <f t="shared" si="1"/>
         <v>23100016</v>
       </c>
-      <c r="T20" s="183" t="b">
+      <c r="T20" s="183" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="U20" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
@@ -36335,50 +36830,53 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="D21" s="85" t="str">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="291">
+        <v>52</v>
+      </c>
+      <c r="D21" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>52</v>
       </c>
       <c r="E21" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[No. Invoice :],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="F21" s="88" t="str">
+        <v>AM 23100017</v>
+      </c>
+      <c r="F21" s="88">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Tgl Invoice :],pajak[//]-offset))</f>
-        <v/>
+        <v>45217</v>
       </c>
       <c r="G21" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Kode Sales :],pajak[//]-offset))</f>
-        <v/>
+        <v>KO 4511</v>
       </c>
       <c r="H21" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Toko],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="I21" s="87" t="str">
+        <v>CV LANCAR JAYA SENTOSA MALANG</v>
+      </c>
+      <c r="I21" s="87">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</f>
-        <v/>
-      </c>
-      <c r="J21" s="87" t="str">
+        <v>850800</v>
+      </c>
+      <c r="J21" s="87">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</f>
-        <v/>
-      </c>
-      <c r="K21" s="87" t="str">
+        <v>106350</v>
+      </c>
+      <c r="K21" s="87">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
-      </c>
-      <c r="L21" s="87" t="str">
+        <v>744450</v>
+      </c>
+      <c r="L21" s="87">
         <f ca="1">IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</f>
-        <v/>
-      </c>
-      <c r="M21" s="87" t="str">
+        <v>73774.32432432432</v>
+      </c>
+      <c r="M21" s="87">
         <f ca="1">pajak[[#This Row],[Sub Total]]</f>
-        <v/>
+        <v>744450</v>
       </c>
       <c r="N21" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[pembuat nota :],pajak[//]-offset))</f>
-        <v/>
+        <v>NOVI / CONDRO</v>
       </c>
       <c r="O21" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",IF(INDEX(Table1[edited :],pajak[//]-offset)="","",INDEX(Table1[edited :],pajak[//]-offset)))</f>
@@ -36393,9 +36891,9 @@
         <f t="shared" si="1"/>
         <v>23100017</v>
       </c>
-      <c r="T21" s="183" t="b">
+      <c r="T21" s="183" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="U21" s="183" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
@@ -36414,7 +36912,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="291"/>
       <c r="B22" s="291"/>
       <c r="D22" s="85" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -36494,7 +36993,10 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="291" t="s">
+        <v>52</v>
+      </c>
       <c r="D23" s="85" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -36573,7 +37075,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D24" s="85" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -36652,7 +37154,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D25" s="85" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -36731,7 +37233,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D26" s="85" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -36810,7 +37312,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D27" s="85" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -36889,7 +37391,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D28" s="85" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -36968,7 +37470,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D29" s="85" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -37047,7 +37549,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D30" s="85" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -37127,7 +37629,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D31" s="85" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -37206,7 +37708,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D32" s="85" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -39267,23 +39769,23 @@
       <c r="F58"/>
       <c r="I58" s="87">
         <f ca="1">SUBTOTAL(109,pajak[Total])</f>
-        <v>65359200</v>
+        <v>119122800</v>
       </c>
       <c r="J58" s="87">
         <f ca="1">SUBTOTAL(109,pajak[Diskon])</f>
-        <v>8513058</v>
+        <v>15445476</v>
       </c>
       <c r="K58" s="87">
         <f ca="1">SUBTOTAL(109,pajak[Sub Total])</f>
-        <v>56846142</v>
+        <v>103677324</v>
       </c>
       <c r="L58" s="87">
         <f ca="1">SUBTOTAL(109,pajak[PPN 11%])</f>
-        <v>5633401.4594594594</v>
+        <v>10274329.405405406</v>
       </c>
       <c r="M58" s="87">
         <f ca="1">SUBTOTAL(109,pajak[Total Invoice])</f>
-        <v>56846142</v>
+        <v>103677324</v>
       </c>
       <c r="N58"/>
       <c r="O58"/>
@@ -39291,10 +39793,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G59:G1048576 G3:G57">
-    <cfRule type="duplicateValues" dxfId="64" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:X2 T4:X1048576">
-    <cfRule type="containsText" dxfId="63" priority="1" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",T1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39312,8 +39814,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L115"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView view="pageLayout" topLeftCell="A2" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37:K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -39333,7 +39835,7 @@
     <row r="1" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">IF(K1="",MAX(Table1[//]),INDEX(Table1[//],MATCH(K1,Table1[//],0)))</f>
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
         <v>40</v>
@@ -39347,19 +39849,19 @@
       </c>
       <c r="E1" t="str">
         <f ca="1">INDEX(Table1[Column5],newestIdRow-offset)</f>
-        <v>bendan</v>
+        <v>LANCAR</v>
       </c>
       <c r="F1" t="s">
         <v>43</v>
       </c>
       <c r="G1">
         <f ca="1">INDEX(Table1[h_jumlahbarang],newestIdRow-offset)</f>
-        <v>1</v>
-      </c>
-      <c r="I1" s="312" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="359" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="312"/>
+      <c r="J1" s="359"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="7.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -39383,18 +39885,18 @@
       </c>
       <c r="E3" s="8">
         <f ca="1">INDEX(Table1[h_No. Invoice :],newestIdRow-offset)</f>
-        <v>23100010</v>
+        <v>23100017</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="319" t="str">
+      <c r="H3" s="366" t="str">
         <f ca="1">INDEX(Table2[b],MATCH(kToko,Table2[a],0))</f>
-        <v>HARNOYO</v>
-      </c>
-      <c r="I3" s="319"/>
-      <c r="J3" s="319"/>
-      <c r="K3" s="320"/>
+        <v>CV LANCAR JAYA SENTOSA</v>
+      </c>
+      <c r="I3" s="366"/>
+      <c r="J3" s="366"/>
+      <c r="K3" s="367"/>
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -39403,14 +39905,14 @@
       <c r="C4" s="13"/>
       <c r="D4" s="14"/>
       <c r="E4" s="15"/>
-      <c r="F4" s="323" t="s">
+      <c r="F4" s="337" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="16"/>
-      <c r="H4" s="321"/>
-      <c r="I4" s="321"/>
-      <c r="J4" s="321"/>
-      <c r="K4" s="322"/>
+      <c r="H4" s="368"/>
+      <c r="I4" s="368"/>
+      <c r="J4" s="368"/>
+      <c r="K4" s="369"/>
       <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -39419,20 +39921,20 @@
         <v>2</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="324">
+      <c r="D5" s="338">
         <f ca="1">INDEX(Table1[Tgl Invoice :],newestIdRow-offset)</f>
-        <v>45213</v>
-      </c>
-      <c r="E5" s="325"/>
-      <c r="F5" s="323"/>
+        <v>45217</v>
+      </c>
+      <c r="E5" s="339"/>
+      <c r="F5" s="337"/>
       <c r="G5" s="17"/>
-      <c r="H5" s="326" t="str">
+      <c r="H5" s="340" t="str">
         <f ca="1">IF(INDEX(Table2[c],MATCH(kToko,Table2[a],0))="","",INDEX(Table2[c],MATCH(kToko,Table2[a],0)))</f>
-        <v>(BENDAN)</v>
-      </c>
-      <c r="I5" s="326"/>
-      <c r="J5" s="326"/>
-      <c r="K5" s="327"/>
+        <v/>
+      </c>
+      <c r="I5" s="340"/>
+      <c r="J5" s="340"/>
+      <c r="K5" s="341"/>
       <c r="L5" s="17"/>
     </row>
     <row r="6" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -39441,15 +39943,15 @@
       <c r="C6" s="13"/>
       <c r="D6" s="14"/>
       <c r="E6" s="15"/>
-      <c r="F6" s="323"/>
+      <c r="F6" s="337"/>
       <c r="G6" s="17"/>
-      <c r="H6" s="328" t="str">
+      <c r="H6" s="342" t="str">
         <f ca="1">INDEX(Table2[d],MATCH(kToko,Table2[a],0))</f>
-        <v>PEKALONGAN</v>
-      </c>
-      <c r="I6" s="328"/>
-      <c r="J6" s="328"/>
-      <c r="K6" s="329"/>
+        <v>MALANG</v>
+      </c>
+      <c r="I6" s="342"/>
+      <c r="J6" s="342"/>
+      <c r="K6" s="343"/>
       <c r="L6" s="18"/>
     </row>
     <row r="7" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -39460,15 +39962,15 @@
       <c r="C7" s="7"/>
       <c r="D7" s="19" t="str">
         <f ca="1">INDEX(Table1[Kode Sales :],newestIdRow-offset)</f>
-        <v>KO 4612</v>
+        <v>KO 4511</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="20"/>
       <c r="G7" s="21"/>
-      <c r="H7" s="330"/>
-      <c r="I7" s="330"/>
-      <c r="J7" s="330"/>
-      <c r="K7" s="331"/>
+      <c r="H7" s="344"/>
+      <c r="I7" s="344"/>
+      <c r="J7" s="344"/>
+      <c r="K7" s="345"/>
       <c r="L7" s="18"/>
     </row>
     <row r="8" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -39531,29 +40033,29 @@
       </c>
       <c r="B11" s="45">
         <f ca="1">IF(A11&gt;jumlahBarang,"",INDEX(Table1[Qty],newestIdRow-offset+A11-1))</f>
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C11" s="45" t="str">
         <f ca="1">IF(A11&gt;jumlahBarang,"",UPPER((INDEX(Table1[Unit],newestIdRow-offset+A11-1))))</f>
-        <v>PCS</v>
-      </c>
-      <c r="D11" s="46">
+        <v>LSN</v>
+      </c>
+      <c r="D11" s="46" t="str">
         <f ca="1">IF(A11&gt;jumlahBarang,"",IF(INDEX(Table1[C],newestIdRow-offset+A11-1)="","",INDEX(Table1[C],newestIdRow-offset+A11-1)))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="E11" s="47" t="str">
         <f ca="1">IF(A11&gt;jumlahBarang,"",INDEX(Table1[Item Description],newestIdRow-offset+A11-1))</f>
-        <v>PUNCH KENKO NO. 85XL</v>
+        <v>PENSIL WARNA JOYKO CP-12PB (PANJANG)</v>
       </c>
       <c r="F11" s="48"/>
       <c r="G11" s="49"/>
       <c r="H11" s="50">
         <f ca="1">IF(A11&gt;jumlahBarang,"",INDEX(Table1[Unit Price],newestIdRow-offset+A11-1))</f>
-        <v>59000</v>
+        <v>127200</v>
       </c>
       <c r="I11" s="51">
         <f ca="1">IF(A11&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 1],newestIdRow-offset+A11-1)="","",INDEX(Table1[Disc 1],newestIdRow-offset+A11-1)))</f>
-        <v>0.14000000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="J11" s="51" t="str">
         <f ca="1">IF(A11&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 2],newestIdRow-offset+A11-1)="","",INDEX(Table1[Disc 2],newestIdRow-offset+A11-1)))</f>
@@ -39561,7 +40063,7 @@
       </c>
       <c r="K11" s="52">
         <f ca="1">IF(A11&gt;jumlahBarang,"",INDEX(Table1[Amount],newestIdRow-offset+A11-1))</f>
-        <v>1217760</v>
+        <v>111300</v>
       </c>
       <c r="L11" s="35"/>
     </row>
@@ -39569,13 +40071,13 @@
       <c r="A12" s="44">
         <v>2</v>
       </c>
-      <c r="B12" s="45" t="str">
+      <c r="B12" s="45">
         <f ca="1">IF(A12&gt;jumlahBarang,"",INDEX(Table1[Qty],newestIdRow-offset+A12-1))</f>
-        <v/>
+        <v>9</v>
       </c>
       <c r="C12" s="45" t="str">
         <f ca="1">IF(A12&gt;jumlahBarang,"",UPPER((INDEX(Table1[Unit],newestIdRow-offset+A12-1))))</f>
-        <v/>
+        <v>LSN</v>
       </c>
       <c r="D12" s="46" t="str">
         <f ca="1">IF(A12&gt;jumlahBarang,"",IF(INDEX(Table1[C],newestIdRow-offset+A12-1)="","",INDEX(Table1[C],newestIdRow-offset+A12-1)))</f>
@@ -39583,25 +40085,25 @@
       </c>
       <c r="E12" s="47" t="str">
         <f ca="1">IF(A12&gt;jumlahBarang,"",INDEX(Table1[Item Description],newestIdRow-offset+A12-1))</f>
-        <v/>
+        <v>PENSIL WARNA JOYKO CP-S12 MINI (PENDEK)</v>
       </c>
       <c r="F12" s="48"/>
       <c r="G12" s="49"/>
-      <c r="H12" s="50" t="str">
+      <c r="H12" s="50">
         <f ca="1">IF(A12&gt;jumlahBarang,"",INDEX(Table1[Unit Price],newestIdRow-offset+A12-1))</f>
-        <v/>
-      </c>
-      <c r="I12" s="51" t="str">
+        <v>80400</v>
+      </c>
+      <c r="I12" s="51">
         <f ca="1">IF(A12&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 1],newestIdRow-offset+A12-1)="","",INDEX(Table1[Disc 1],newestIdRow-offset+A12-1)))</f>
-        <v/>
+        <v>0.125</v>
       </c>
       <c r="J12" s="51" t="str">
         <f ca="1">IF(A12&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 2],newestIdRow-offset+A12-1)="","",INDEX(Table1[Disc 2],newestIdRow-offset+A12-1)))</f>
         <v/>
       </c>
-      <c r="K12" s="52" t="str">
+      <c r="K12" s="52">
         <f ca="1">IF(A12&gt;jumlahBarang,"",INDEX(Table1[Amount],newestIdRow-offset+A12-1))</f>
-        <v/>
+        <v>633150</v>
       </c>
       <c r="L12" s="35"/>
     </row>
@@ -40189,8 +40691,8 @@
       <c r="G28" s="63"/>
       <c r="H28" s="63"/>
       <c r="I28" s="64"/>
-      <c r="J28" s="318"/>
-      <c r="K28" s="318"/>
+      <c r="J28" s="365"/>
+      <c r="K28" s="365"/>
     </row>
     <row r="29" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
@@ -40200,11 +40702,11 @@
       <c r="I29" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="J29" s="315">
+      <c r="J29" s="362">
         <f ca="1">INDEX(pajak[Sub Total],MATCH(newestIdRow,pajak[//],0))</f>
-        <v>1217760</v>
-      </c>
-      <c r="K29" s="316"/>
+        <v>744450</v>
+      </c>
+      <c r="K29" s="363"/>
       <c r="L29" s="35"/>
     </row>
     <row r="30" spans="1:12" s="9" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -40213,8 +40715,8 @@
       <c r="C30" s="65"/>
       <c r="D30" s="24"/>
       <c r="I30" s="67"/>
-      <c r="J30" s="317"/>
-      <c r="K30" s="317"/>
+      <c r="J30" s="364"/>
+      <c r="K30" s="364"/>
     </row>
     <row r="31" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
@@ -40237,8 +40739,8 @@
       <c r="C32" s="65"/>
       <c r="D32" s="24"/>
       <c r="I32" s="67"/>
-      <c r="J32" s="318"/>
-      <c r="K32" s="318"/>
+      <c r="J32" s="365"/>
+      <c r="K32" s="365"/>
     </row>
     <row r="33" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
@@ -40253,11 +40755,11 @@
       <c r="I33" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="J33" s="315">
+      <c r="J33" s="362">
         <f ca="1">INDEX(pajak[PPN 11%],MATCH(newestIdRow,pajak[//],0))</f>
-        <v>120678.91891891891</v>
-      </c>
-      <c r="K33" s="316"/>
+        <v>73774.32432432432</v>
+      </c>
+      <c r="K33" s="363"/>
       <c r="L33" s="72"/>
     </row>
     <row r="34" spans="1:12" s="9" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -40266,8 +40768,8 @@
       <c r="C34" s="65"/>
       <c r="D34" s="24"/>
       <c r="I34" s="67"/>
-      <c r="J34" s="318"/>
-      <c r="K34" s="318"/>
+      <c r="J34" s="365"/>
+      <c r="K34" s="365"/>
     </row>
     <row r="35" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
@@ -40281,7 +40783,7 @@
       <c r="J35" s="75"/>
       <c r="K35" s="76">
         <f ca="1">INDEX(pajak[Total Invoice],MATCH(newestIdRow,pajak[//],0))</f>
-        <v>1217760</v>
+        <v>744450</v>
       </c>
       <c r="L35" s="72"/>
     </row>
@@ -40308,11 +40810,11 @@
       <c r="I37" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="J37" s="313" t="str">
+      <c r="J37" s="360" t="str">
         <f ca="1">INDEX(pajak[pembuat nota],MATCH(newestIdRow,pajak[//],0))</f>
         <v>NOVI / CONDRO</v>
       </c>
-      <c r="K37" s="314"/>
+      <c r="K37" s="361"/>
     </row>
     <row r="38" spans="1:12" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="77"/>
@@ -40322,11 +40824,11 @@
       <c r="I38" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="J38" s="313" t="str">
+      <c r="J38" s="360" t="str">
         <f ca="1">INDEX(pajak[edited],MATCH(newestIdRow,pajak[//],0))</f>
         <v/>
       </c>
-      <c r="K38" s="314"/>
+      <c r="K38" s="361"/>
       <c r="L38" s="63"/>
     </row>
     <row r="39" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -40365,19 +40867,19 @@
       </c>
       <c r="E41" s="194">
         <f ca="1">E3</f>
-        <v>23100010</v>
+        <v>23100017</v>
       </c>
       <c r="F41" s="195"/>
       <c r="G41" s="196" t="s">
         <v>16</v>
       </c>
-      <c r="H41" s="332" t="str">
+      <c r="H41" s="346" t="str">
         <f ca="1">H3</f>
-        <v>HARNOYO</v>
-      </c>
-      <c r="I41" s="332"/>
-      <c r="J41" s="332"/>
-      <c r="K41" s="333"/>
+        <v>CV LANCAR JAYA SENTOSA</v>
+      </c>
+      <c r="I41" s="346"/>
+      <c r="J41" s="346"/>
+      <c r="K41" s="347"/>
       <c r="L41" s="197"/>
     </row>
     <row r="42" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -40386,14 +40888,14 @@
       <c r="C42" s="199"/>
       <c r="D42" s="200"/>
       <c r="E42" s="201"/>
-      <c r="F42" s="336" t="s">
+      <c r="F42" s="350" t="s">
         <v>18</v>
       </c>
       <c r="G42" s="202"/>
-      <c r="H42" s="334"/>
-      <c r="I42" s="334"/>
-      <c r="J42" s="334"/>
-      <c r="K42" s="335"/>
+      <c r="H42" s="348"/>
+      <c r="I42" s="348"/>
+      <c r="J42" s="348"/>
+      <c r="K42" s="349"/>
       <c r="L42" s="197"/>
     </row>
     <row r="43" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -40402,20 +40904,20 @@
         <v>2</v>
       </c>
       <c r="C43" s="192"/>
-      <c r="D43" s="337">
+      <c r="D43" s="351">
         <f ca="1">D5</f>
-        <v>45213</v>
-      </c>
-      <c r="E43" s="338"/>
-      <c r="F43" s="336"/>
+        <v>45217</v>
+      </c>
+      <c r="E43" s="352"/>
+      <c r="F43" s="350"/>
       <c r="G43" s="203"/>
-      <c r="H43" s="339" t="str">
+      <c r="H43" s="353" t="str">
         <f ca="1">H5</f>
-        <v>(BENDAN)</v>
-      </c>
-      <c r="I43" s="339"/>
-      <c r="J43" s="339"/>
-      <c r="K43" s="340"/>
+        <v/>
+      </c>
+      <c r="I43" s="353"/>
+      <c r="J43" s="353"/>
+      <c r="K43" s="354"/>
       <c r="L43" s="204"/>
     </row>
     <row r="44" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -40424,15 +40926,15 @@
       <c r="C44" s="199"/>
       <c r="D44" s="200"/>
       <c r="E44" s="201"/>
-      <c r="F44" s="336"/>
+      <c r="F44" s="350"/>
       <c r="G44" s="203"/>
-      <c r="H44" s="341" t="str">
+      <c r="H44" s="355" t="str">
         <f ca="1">H6</f>
-        <v>PEKALONGAN</v>
-      </c>
-      <c r="I44" s="341"/>
-      <c r="J44" s="341"/>
-      <c r="K44" s="342"/>
+        <v>MALANG</v>
+      </c>
+      <c r="I44" s="355"/>
+      <c r="J44" s="355"/>
+      <c r="K44" s="356"/>
       <c r="L44" s="205"/>
     </row>
     <row r="45" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -40443,15 +40945,15 @@
       <c r="C45" s="192"/>
       <c r="D45" s="206" t="str">
         <f ca="1">D7</f>
-        <v>KO 4612</v>
+        <v>KO 4511</v>
       </c>
       <c r="E45" s="194"/>
       <c r="F45" s="207"/>
       <c r="G45" s="208"/>
-      <c r="H45" s="343"/>
-      <c r="I45" s="343"/>
-      <c r="J45" s="343"/>
-      <c r="K45" s="344"/>
+      <c r="H45" s="357"/>
+      <c r="I45" s="357"/>
+      <c r="J45" s="357"/>
+      <c r="K45" s="358"/>
       <c r="L45" s="205"/>
     </row>
     <row r="46" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -40518,29 +41020,29 @@
       </c>
       <c r="B49" s="233">
         <f t="shared" ref="B49:E64" ca="1" si="0">B11</f>
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C49" s="234" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>PCS</v>
-      </c>
-      <c r="D49" s="235">
+        <v>LSN</v>
+      </c>
+      <c r="D49" s="235" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="E49" s="236" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>PUNCH KENKO NO. 85XL</v>
+        <v>PENSIL WARNA JOYKO CP-12PB (PANJANG)</v>
       </c>
       <c r="F49" s="237"/>
       <c r="G49" s="238"/>
       <c r="H49" s="239">
         <f t="shared" ref="H49:K64" ca="1" si="1">H11</f>
-        <v>59000</v>
+        <v>127200</v>
       </c>
       <c r="I49" s="240">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14000000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="J49" s="240" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -40548,7 +41050,7 @@
       </c>
       <c r="K49" s="241">
         <f t="shared" ca="1" si="1"/>
-        <v>1217760</v>
+        <v>111300</v>
       </c>
       <c r="L49" s="223"/>
     </row>
@@ -40556,13 +41058,13 @@
       <c r="A50" s="232">
         <v>2</v>
       </c>
-      <c r="B50" s="233" t="str">
+      <c r="B50" s="233">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="C50" s="234" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>LSN</v>
       </c>
       <c r="D50" s="235" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -40570,25 +41072,25 @@
       </c>
       <c r="E50" s="236" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>PENSIL WARNA JOYKO CP-S12 MINI (PENDEK)</v>
       </c>
       <c r="F50" s="237"/>
       <c r="G50" s="238"/>
-      <c r="H50" s="239" t="str">
+      <c r="H50" s="239">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="I50" s="240" t="str">
+        <v>80400</v>
+      </c>
+      <c r="I50" s="240">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>0.125</v>
       </c>
       <c r="J50" s="240" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="K50" s="241" t="str">
+      <c r="K50" s="241">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>633150</v>
       </c>
       <c r="L50" s="223"/>
     </row>
@@ -41176,8 +41678,8 @@
       <c r="G66" s="252"/>
       <c r="H66" s="252"/>
       <c r="I66" s="253"/>
-      <c r="J66" s="345"/>
-      <c r="K66" s="345"/>
+      <c r="J66" s="326"/>
+      <c r="K66" s="326"/>
       <c r="L66" s="215"/>
     </row>
     <row r="67" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -41192,11 +41694,11 @@
       <c r="I67" s="255" t="s">
         <v>21</v>
       </c>
-      <c r="J67" s="346">
+      <c r="J67" s="334">
         <f ca="1">J29</f>
-        <v>1217760</v>
-      </c>
-      <c r="K67" s="347"/>
+        <v>744450</v>
+      </c>
+      <c r="K67" s="335"/>
       <c r="L67" s="223"/>
     </row>
     <row r="68" spans="1:12" s="9" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -41209,8 +41711,8 @@
       <c r="G68" s="212"/>
       <c r="H68" s="212"/>
       <c r="I68" s="256"/>
-      <c r="J68" s="348"/>
-      <c r="K68" s="348"/>
+      <c r="J68" s="336"/>
+      <c r="K68" s="336"/>
       <c r="L68" s="215"/>
     </row>
     <row r="69" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -41245,8 +41747,8 @@
       <c r="G70" s="212"/>
       <c r="H70" s="212"/>
       <c r="I70" s="256"/>
-      <c r="J70" s="345"/>
-      <c r="K70" s="345"/>
+      <c r="J70" s="326"/>
+      <c r="K70" s="326"/>
       <c r="L70" s="215"/>
     </row>
     <row r="71" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -41265,11 +41767,11 @@
       <c r="I71" s="255" t="s">
         <v>25</v>
       </c>
-      <c r="J71" s="346">
+      <c r="J71" s="334">
         <f ca="1">J33</f>
-        <v>120678.91891891891</v>
-      </c>
-      <c r="K71" s="347"/>
+        <v>73774.32432432432</v>
+      </c>
+      <c r="K71" s="335"/>
       <c r="L71" s="261"/>
     </row>
     <row r="72" spans="1:12" s="9" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -41282,8 +41784,8 @@
       <c r="G72" s="212"/>
       <c r="H72" s="212"/>
       <c r="I72" s="256"/>
-      <c r="J72" s="345"/>
-      <c r="K72" s="345"/>
+      <c r="J72" s="326"/>
+      <c r="K72" s="326"/>
       <c r="L72" s="215"/>
     </row>
     <row r="73" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -41301,7 +41803,7 @@
       <c r="J73" s="264"/>
       <c r="K73" s="265">
         <f ca="1">K35</f>
-        <v>1217760</v>
+        <v>744450</v>
       </c>
       <c r="L73" s="261"/>
     </row>
@@ -41333,11 +41835,11 @@
       <c r="I75" s="271" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="349" t="str">
+      <c r="J75" s="327" t="str">
         <f ca="1">J37</f>
         <v>NOVI / CONDRO</v>
       </c>
-      <c r="K75" s="350"/>
+      <c r="K75" s="328"/>
       <c r="L75" s="215"/>
     </row>
     <row r="76" spans="1:12" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -41352,11 +41854,11 @@
       <c r="I76" s="273" t="s">
         <v>13</v>
       </c>
-      <c r="J76" s="349" t="str">
+      <c r="J76" s="327" t="str">
         <f ca="1">J38</f>
         <v/>
       </c>
-      <c r="K76" s="350"/>
+      <c r="K76" s="328"/>
       <c r="L76" s="269"/>
     </row>
     <row r="77" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -41399,19 +41901,19 @@
       </c>
       <c r="E79" s="99">
         <f ca="1">E41</f>
-        <v>23100010</v>
+        <v>23100017</v>
       </c>
       <c r="F79" s="100"/>
       <c r="G79" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="H79" s="351" t="str">
+      <c r="H79" s="329" t="str">
         <f ca="1">H41</f>
-        <v>HARNOYO</v>
-      </c>
-      <c r="I79" s="351"/>
-      <c r="J79" s="351"/>
-      <c r="K79" s="352"/>
+        <v>CV LANCAR JAYA SENTOSA</v>
+      </c>
+      <c r="I79" s="329"/>
+      <c r="J79" s="329"/>
+      <c r="K79" s="330"/>
       <c r="L79" s="102"/>
     </row>
     <row r="80" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -41420,14 +41922,14 @@
       <c r="C80" s="104"/>
       <c r="D80" s="105"/>
       <c r="E80" s="106"/>
-      <c r="F80" s="355" t="s">
+      <c r="F80" s="333" t="s">
         <v>18</v>
       </c>
       <c r="G80" s="107"/>
-      <c r="H80" s="353"/>
-      <c r="I80" s="353"/>
-      <c r="J80" s="353"/>
-      <c r="K80" s="354"/>
+      <c r="H80" s="331"/>
+      <c r="I80" s="331"/>
+      <c r="J80" s="331"/>
+      <c r="K80" s="332"/>
       <c r="L80" s="102"/>
     </row>
     <row r="81" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -41436,20 +41938,20 @@
         <v>2</v>
       </c>
       <c r="C81" s="97"/>
-      <c r="D81" s="356">
+      <c r="D81" s="318">
         <f ca="1">D43</f>
-        <v>45213</v>
-      </c>
-      <c r="E81" s="357"/>
-      <c r="F81" s="355"/>
+        <v>45217</v>
+      </c>
+      <c r="E81" s="319"/>
+      <c r="F81" s="333"/>
       <c r="G81" s="108"/>
-      <c r="H81" s="358" t="str">
+      <c r="H81" s="320" t="str">
         <f ca="1">H43</f>
-        <v>(BENDAN)</v>
-      </c>
-      <c r="I81" s="358"/>
-      <c r="J81" s="358"/>
-      <c r="K81" s="359"/>
+        <v/>
+      </c>
+      <c r="I81" s="320"/>
+      <c r="J81" s="320"/>
+      <c r="K81" s="321"/>
       <c r="L81" s="109"/>
     </row>
     <row r="82" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -41458,15 +41960,15 @@
       <c r="C82" s="104"/>
       <c r="D82" s="105"/>
       <c r="E82" s="106"/>
-      <c r="F82" s="355"/>
+      <c r="F82" s="333"/>
       <c r="G82" s="108"/>
-      <c r="H82" s="360" t="str">
+      <c r="H82" s="322" t="str">
         <f ca="1">H44</f>
-        <v>PEKALONGAN</v>
-      </c>
-      <c r="I82" s="360"/>
-      <c r="J82" s="360"/>
-      <c r="K82" s="361"/>
+        <v>MALANG</v>
+      </c>
+      <c r="I82" s="322"/>
+      <c r="J82" s="322"/>
+      <c r="K82" s="323"/>
       <c r="L82" s="110"/>
     </row>
     <row r="83" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -41477,15 +41979,15 @@
       <c r="C83" s="97"/>
       <c r="D83" s="111" t="str">
         <f ca="1">D45</f>
-        <v>KO 4612</v>
+        <v>KO 4511</v>
       </c>
       <c r="E83" s="99"/>
       <c r="F83" s="112"/>
       <c r="G83" s="113"/>
-      <c r="H83" s="362"/>
-      <c r="I83" s="362"/>
-      <c r="J83" s="362"/>
-      <c r="K83" s="363"/>
+      <c r="H83" s="324"/>
+      <c r="I83" s="324"/>
+      <c r="J83" s="324"/>
+      <c r="K83" s="325"/>
       <c r="L83" s="110"/>
     </row>
     <row r="84" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -41552,29 +42054,29 @@
       </c>
       <c r="B87" s="138">
         <f t="shared" ref="B87:E102" ca="1" si="2">B49</f>
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C87" s="139" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>PCS</v>
-      </c>
-      <c r="D87" s="140">
+        <v>LSN</v>
+      </c>
+      <c r="D87" s="140" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="E87" s="141" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>PUNCH KENKO NO. 85XL</v>
+        <v>PENSIL WARNA JOYKO CP-12PB (PANJANG)</v>
       </c>
       <c r="F87" s="142"/>
       <c r="G87" s="143"/>
       <c r="H87" s="144">
         <f t="shared" ref="H87:K102" ca="1" si="3">H49</f>
-        <v>59000</v>
+        <v>127200</v>
       </c>
       <c r="I87" s="145">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14000000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="J87" s="145" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -41582,7 +42084,7 @@
       </c>
       <c r="K87" s="146">
         <f t="shared" ca="1" si="3"/>
-        <v>1217760</v>
+        <v>111300</v>
       </c>
       <c r="L87" s="128"/>
     </row>
@@ -41590,13 +42092,13 @@
       <c r="A88" s="137">
         <v>2</v>
       </c>
-      <c r="B88" s="138" t="str">
+      <c r="B88" s="138">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="C88" s="139" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>LSN</v>
       </c>
       <c r="D88" s="140" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -41604,25 +42106,25 @@
       </c>
       <c r="E88" s="141" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>PENSIL WARNA JOYKO CP-S12 MINI (PENDEK)</v>
       </c>
       <c r="F88" s="142"/>
       <c r="G88" s="143"/>
-      <c r="H88" s="144" t="str">
+      <c r="H88" s="144">
         <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="I88" s="145" t="str">
+        <v>80400</v>
+      </c>
+      <c r="I88" s="145">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>0.125</v>
       </c>
       <c r="J88" s="145" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="K88" s="146" t="str">
+      <c r="K88" s="146">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>633150</v>
       </c>
       <c r="L88" s="128"/>
     </row>
@@ -42210,8 +42712,8 @@
       <c r="G104" s="157"/>
       <c r="H104" s="157"/>
       <c r="I104" s="158"/>
-      <c r="J104" s="364"/>
-      <c r="K104" s="364"/>
+      <c r="J104" s="315"/>
+      <c r="K104" s="315"/>
       <c r="L104" s="120"/>
     </row>
     <row r="105" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42226,11 +42728,11 @@
       <c r="I105" s="160" t="s">
         <v>21</v>
       </c>
-      <c r="J105" s="365">
+      <c r="J105" s="316">
         <f ca="1">J67</f>
-        <v>1217760</v>
-      </c>
-      <c r="K105" s="366"/>
+        <v>744450</v>
+      </c>
+      <c r="K105" s="317"/>
       <c r="L105" s="128"/>
     </row>
     <row r="106" spans="1:12" s="9" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -42243,8 +42745,8 @@
       <c r="G106" s="117"/>
       <c r="H106" s="117"/>
       <c r="I106" s="161"/>
-      <c r="J106" s="369"/>
-      <c r="K106" s="369"/>
+      <c r="J106" s="314"/>
+      <c r="K106" s="314"/>
       <c r="L106" s="120"/>
     </row>
     <row r="107" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42279,8 +42781,8 @@
       <c r="G108" s="117"/>
       <c r="H108" s="117"/>
       <c r="I108" s="161"/>
-      <c r="J108" s="364"/>
-      <c r="K108" s="364"/>
+      <c r="J108" s="315"/>
+      <c r="K108" s="315"/>
       <c r="L108" s="120"/>
     </row>
     <row r="109" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42299,11 +42801,11 @@
       <c r="I109" s="160" t="s">
         <v>25</v>
       </c>
-      <c r="J109" s="365">
+      <c r="J109" s="316">
         <f ca="1">J71</f>
-        <v>120678.91891891891</v>
-      </c>
-      <c r="K109" s="366"/>
+        <v>73774.32432432432</v>
+      </c>
+      <c r="K109" s="317"/>
       <c r="L109" s="166"/>
     </row>
     <row r="110" spans="1:12" s="9" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -42316,8 +42818,8 @@
       <c r="G110" s="117"/>
       <c r="H110" s="117"/>
       <c r="I110" s="161"/>
-      <c r="J110" s="364"/>
-      <c r="K110" s="364"/>
+      <c r="J110" s="315"/>
+      <c r="K110" s="315"/>
       <c r="L110" s="120"/>
     </row>
     <row r="111" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42335,7 +42837,7 @@
       <c r="J111" s="169"/>
       <c r="K111" s="170">
         <f ca="1">K73</f>
-        <v>1217760</v>
+        <v>744450</v>
       </c>
       <c r="L111" s="166"/>
     </row>
@@ -42367,11 +42869,11 @@
       <c r="I113" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="J113" s="367" t="str">
+      <c r="J113" s="312" t="str">
         <f ca="1">J75</f>
         <v>NOVI / CONDRO</v>
       </c>
-      <c r="K113" s="368"/>
+      <c r="K113" s="313"/>
       <c r="L113" s="120"/>
     </row>
     <row r="114" spans="1:12" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -42386,11 +42888,11 @@
       <c r="I114" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="J114" s="367" t="str">
+      <c r="J114" s="312" t="str">
         <f ca="1">J76</f>
         <v/>
       </c>
-      <c r="K114" s="368"/>
+      <c r="K114" s="313"/>
       <c r="L114" s="174"/>
     </row>
     <row r="115" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -42409,36 +42911,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="J114:K114"/>
-    <mergeCell ref="J106:K106"/>
-    <mergeCell ref="J108:K108"/>
-    <mergeCell ref="J109:K109"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="J113:K113"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="H81:K81"/>
-    <mergeCell ref="H82:K83"/>
-    <mergeCell ref="J104:K104"/>
-    <mergeCell ref="J105:K105"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="H79:K80"/>
-    <mergeCell ref="F80:F82"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H6:K7"/>
-    <mergeCell ref="H41:K42"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="H44:K45"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="J38:K38"/>
     <mergeCell ref="J29:K29"/>
@@ -42449,6 +42921,36 @@
     <mergeCell ref="J37:K37"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="H3:K4"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H6:K7"/>
+    <mergeCell ref="H41:K42"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="H44:K45"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="H79:K80"/>
+    <mergeCell ref="F80:F82"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="H82:K83"/>
+    <mergeCell ref="J104:K104"/>
+    <mergeCell ref="J105:K105"/>
+    <mergeCell ref="J114:K114"/>
+    <mergeCell ref="J106:K106"/>
+    <mergeCell ref="J108:K108"/>
+    <mergeCell ref="J109:K109"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="J113:K113"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="6.59375" header="0" footer="0"/>
   <pageSetup paperSize="14" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -42461,8 +42963,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/BARU/2023/10 OKTOBER/KELUAR 10.xlsx
+++ b/BARU/2023/10 OKTOBER/KELUAR 10.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NOTA" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,9 @@
     <definedName name="pointer">PAJAK!$H$3</definedName>
     <definedName name="ponter">PAJAK!$H$3</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId6"/>
+    <pivotCache cacheId="12" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -2283,38 +2283,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="166" fontId="35" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="35" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="24" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="35" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="35" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="24" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2382,80 +2424,38 @@
     <xf numFmtId="166" fontId="24" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="35" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="35" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="35" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="35" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2463,41 +2463,6 @@
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="127">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <alignment horizontal="left" readingOrder="0"/>
     </dxf>
@@ -2549,984 +2514,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3921,22 +2908,49 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
       <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3960,21 +2974,33 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
       <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3998,6 +3024,37 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -4013,6 +3070,137 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -4063,6 +3251,68 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -4086,21 +3336,33 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -4124,6 +3386,37 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -4131,6 +3424,7 @@
         <vertAlign val="baseline"/>
         <color auto="1"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -4138,6 +3432,36 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -4177,10 +3501,121 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -4204,6 +3639,37 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -4219,6 +3685,37 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -4242,6 +3739,36 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -4256,6 +3783,37 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -4301,10 +3859,70 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -4327,6 +3945,36 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -4345,6 +3993,36 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -4356,6 +4034,81 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -4382,6 +4135,37 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -4401,21 +4185,32 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -4461,10 +4256,71 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -4514,6 +4370,68 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -4554,10 +4472,72 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -4623,6 +4603,26 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border diagonalDown="0">
@@ -5499,7 +5499,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="45232.399373726854" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="278">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="45236.377243287039" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="277">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1" r:id="rId2"/>
   </cacheSource>
@@ -5539,7 +5539,6 @@
         <n v="135"/>
         <n v="137"/>
         <n v="142"/>
-        <n v="145"/>
         <n v="122" u="1"/>
         <n v="33" u="1"/>
         <n v="95" u="1"/>
@@ -5568,18 +5567,19 @@
         <n v="71" u="1"/>
         <n v="70" u="1"/>
         <n v="47" u="1"/>
+        <n v="145" u="1"/>
         <n v="96" u="1"/>
         <n v="16" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="h_No. Invoice :" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="23100001" maxValue="23110001"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="23100001" maxValue="23100032"/>
     </cacheField>
     <cacheField name="Tgl Invoice :" numFmtId="164">
-      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2023-10-05T00:00:00" maxDate="2023-11-03T00:00:00"/>
+      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2023-10-05T00:00:00" maxDate="2023-11-01T00:00:00"/>
     </cacheField>
     <cacheField name="Column2" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="31"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="5" maxValue="31"/>
     </cacheField>
     <cacheField name="Column3" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -5657,7 +5657,7 @@
       <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="35640" maxValue="18522000"/>
     </cacheField>
     <cacheField name="Total Invoice" numFmtId="43">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="36052800"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="108000" maxValue="36052800"/>
     </cacheField>
     <cacheField name="KETERANGAN" numFmtId="43">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
@@ -5675,7 +5675,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="278">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="277">
   <r>
     <x v="0"/>
     <s v=""/>
@@ -10505,40 +10505,6 @@
     <s v=""/>
   </r>
   <r>
-    <x v="33"/>
-    <n v="23110001"/>
-    <d v="2023-11-02T00:00:00"/>
-    <n v="2"/>
-    <s v="ko"/>
-    <s v="4680"/>
-    <s v="centraal"/>
-    <s v="AM 23110001"/>
-    <s v="KO 4680"/>
-    <s v="CV TRINITY CENTRAAL PURWOKERTO"/>
-    <n v="20"/>
-    <s v="PAK"/>
-    <m/>
-    <s v="KTSTFOLIO"/>
-    <s v="KARTU STOCK FOLIO"/>
-    <s v="KARTU STOCK FOLIO (4 WARNA)"/>
-    <n v="37500"/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v="NOVI / CONDRO"/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <n v="0"/>
-    <m/>
-    <s v="PAK"/>
-  </r>
-  <r>
     <x v="0"/>
     <s v=""/>
     <s v=""/>
@@ -15132,74 +15098,74 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A4:A39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:A38" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="32">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
       <items count="65">
         <item x="1"/>
-        <item m="1" x="41"/>
+        <item m="1" x="40"/>
         <item x="2"/>
-        <item m="1" x="58"/>
+        <item m="1" x="57"/>
         <item x="3"/>
-        <item m="1" x="51"/>
+        <item m="1" x="50"/>
         <item x="4"/>
-        <item m="1" x="40"/>
+        <item m="1" x="39"/>
         <item m="1" x="63"/>
         <item x="5"/>
-        <item m="1" x="37"/>
+        <item m="1" x="36"/>
         <item x="6"/>
         <item x="7"/>
         <item x="8"/>
         <item x="9"/>
-        <item m="1" x="35"/>
-        <item m="1" x="55"/>
-        <item m="1" x="47"/>
+        <item m="1" x="34"/>
+        <item m="1" x="54"/>
+        <item m="1" x="46"/>
         <item x="10"/>
         <item x="11"/>
         <item x="12"/>
         <item x="13"/>
-        <item m="1" x="61"/>
+        <item m="1" x="60"/>
         <item x="14"/>
-        <item m="1" x="48"/>
-        <item m="1" x="39"/>
+        <item m="1" x="47"/>
+        <item m="1" x="38"/>
         <item x="15"/>
-        <item m="1" x="54"/>
+        <item m="1" x="53"/>
         <item x="16"/>
-        <item m="1" x="46"/>
+        <item m="1" x="45"/>
         <item x="17"/>
         <item x="18"/>
         <item x="19"/>
-        <item m="1" x="60"/>
         <item m="1" x="59"/>
-        <item m="1" x="57"/>
-        <item m="1" x="53"/>
+        <item m="1" x="58"/>
+        <item m="1" x="56"/>
         <item m="1" x="52"/>
-        <item m="1" x="50"/>
+        <item m="1" x="51"/>
+        <item m="1" x="49"/>
         <item x="20"/>
-        <item m="1" x="45"/>
+        <item m="1" x="44"/>
         <item x="21"/>
         <item x="22"/>
         <item x="23"/>
-        <item m="1" x="43"/>
         <item m="1" x="42"/>
-        <item m="1" x="36"/>
+        <item m="1" x="41"/>
+        <item m="1" x="35"/>
         <item m="1" x="62"/>
         <item x="24"/>
-        <item m="1" x="56"/>
+        <item m="1" x="55"/>
         <item x="25"/>
-        <item m="1" x="49"/>
-        <item m="1" x="44"/>
+        <item m="1" x="48"/>
+        <item m="1" x="43"/>
         <item x="26"/>
         <item x="27"/>
         <item x="28"/>
-        <item m="1" x="38"/>
-        <item m="1" x="34"/>
+        <item m="1" x="37"/>
+        <item m="1" x="33"/>
         <item x="29"/>
         <item x="30"/>
         <item x="31"/>
         <item x="32"/>
-        <item x="33"/>
+        <item m="1" x="61"/>
         <item x="0"/>
         <item t="default"/>
       </items>
@@ -15239,7 +15205,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="35">
+  <rowItems count="34">
     <i>
       <x/>
     </i>
@@ -15337,9 +15303,6 @@
       <x v="61"/>
     </i>
     <i>
-      <x v="62"/>
-    </i>
-    <i>
       <x v="63"/>
     </i>
     <i t="grand">
@@ -15350,26 +15313,26 @@
     <i/>
   </colItems>
   <formats count="8">
-    <format dxfId="90">
+    <format dxfId="54">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="89">
+    <format dxfId="53">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="88">
+    <format dxfId="52">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="87">
+    <format dxfId="51">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="86">
+    <format dxfId="50">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="85">
+    <format dxfId="49">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -15378,7 +15341,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="84">
+    <format dxfId="48">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -15387,7 +15350,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="83">
+    <format dxfId="47">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -15407,73 +15370,73 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:AF280" totalsRowCount="1" headerRowDxfId="125" dataDxfId="124" totalsRowDxfId="123">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:AF280" totalsRowCount="1" headerRowDxfId="123" dataDxfId="122" totalsRowDxfId="121">
   <autoFilter ref="A2:AF279"/>
   <tableColumns count="32">
-    <tableColumn id="16" name="//" dataDxfId="122" totalsRowDxfId="43">
+    <tableColumn id="16" name="//" dataDxfId="120" totalsRowDxfId="119">
       <calculatedColumnFormula>IF(Table1[[#This Row],[No. Invoice :]]="","",ROW())</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="h_No. Invoice :" dataDxfId="121" totalsRowDxfId="42">
+    <tableColumn id="18" name="h_No. Invoice :" dataDxfId="118" totalsRowDxfId="117">
       <calculatedColumnFormula>IF(Table1[Column3]="","",B$1+COUNT(INDIRECT("B$2:B"&amp;ROW()-1)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Tgl Invoice :" dataDxfId="120" totalsRowDxfId="41">
+    <tableColumn id="2" name="Tgl Invoice :" dataDxfId="116" totalsRowDxfId="115">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Column2]]="","",Table1[[#This Row],[Column2]]+C$1-1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" name="Column2" dataDxfId="119" totalsRowDxfId="40"/>
-    <tableColumn id="17" name="Column3" dataDxfId="118" totalsRowDxfId="39"/>
-    <tableColumn id="19" name="Column4" dataDxfId="117" totalsRowDxfId="38"/>
-    <tableColumn id="20" name="Column5" dataDxfId="116" totalsRowDxfId="37"/>
-    <tableColumn id="1" name="No. Invoice :" dataDxfId="115" totalsRowDxfId="36">
+    <tableColumn id="32" name="Column2" dataDxfId="114" totalsRowDxfId="113"/>
+    <tableColumn id="17" name="Column3" dataDxfId="112" totalsRowDxfId="111"/>
+    <tableColumn id="19" name="Column4" dataDxfId="110" totalsRowDxfId="109"/>
+    <tableColumn id="20" name="Column5" dataDxfId="108" totalsRowDxfId="107"/>
+    <tableColumn id="1" name="No. Invoice :" dataDxfId="106" totalsRowDxfId="105">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Kode Sales :" dataDxfId="114" totalsRowDxfId="35">
+    <tableColumn id="3" name="Kode Sales :" dataDxfId="104" totalsRowDxfId="103">
       <calculatedColumnFormula>CONCATENATE(UPPER(Table1[[#This Row],[Column3]])," ",Table1[[#This Row],[Column4]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Toko" dataDxfId="113" totalsRowDxfId="34">
+    <tableColumn id="4" name="Toko" dataDxfId="102" totalsRowDxfId="101">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Column5]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[Column5]]="","",MATCH(Table1[[#This Row],[Column5]],Table2[a],0)),))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Qty" dataDxfId="112" totalsRowDxfId="33"/>
-    <tableColumn id="6" name="Unit" dataDxfId="111" totalsRowDxfId="32"/>
-    <tableColumn id="7" name="C" dataDxfId="110" totalsRowDxfId="31"/>
-    <tableColumn id="8" name="h_Item Description" dataDxfId="109" totalsRowDxfId="30"/>
-    <tableColumn id="10" name="Column1" dataDxfId="108" totalsRowDxfId="29">
+    <tableColumn id="5" name="Qty" dataDxfId="100" totalsRowDxfId="99"/>
+    <tableColumn id="6" name="Unit" dataDxfId="98" totalsRowDxfId="97"/>
+    <tableColumn id="7" name="C" dataDxfId="96" totalsRowDxfId="95"/>
+    <tableColumn id="8" name="h_Item Description" dataDxfId="94" totalsRowDxfId="93"/>
+    <tableColumn id="10" name="Column1" dataDxfId="92" totalsRowDxfId="91">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Item Description" dataDxfId="107" totalsRowDxfId="28"/>
-    <tableColumn id="11" name="Unit Price" dataDxfId="106" totalsRowDxfId="27"/>
-    <tableColumn id="12" name="Disc 1" dataDxfId="105" totalsRowDxfId="26"/>
-    <tableColumn id="13" name="Disc 2" dataDxfId="104" totalsRowDxfId="25"/>
-    <tableColumn id="23" name="Amount" dataDxfId="103" totalsRowDxfId="24">
+    <tableColumn id="9" name="Item Description" dataDxfId="90" totalsRowDxfId="89"/>
+    <tableColumn id="11" name="Unit Price" dataDxfId="88" totalsRowDxfId="87"/>
+    <tableColumn id="12" name="Disc 1" dataDxfId="86" totalsRowDxfId="85"/>
+    <tableColumn id="13" name="Disc 2" dataDxfId="84" totalsRowDxfId="83"/>
+    <tableColumn id="23" name="Amount" dataDxfId="82" totalsRowDxfId="81">
       <calculatedColumnFormula>Table1[[#This Row],[h_hargasetelahdiskon]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="pembuat nota :" dataDxfId="102" totalsRowDxfId="23"/>
-    <tableColumn id="15" name="edited :" dataDxfId="101" totalsRowDxfId="22"/>
-    <tableColumn id="21" name="h_id" dataDxfId="100" totalsRowDxfId="21">
+    <tableColumn id="14" name="pembuat nota :" dataDxfId="80" totalsRowDxfId="79"/>
+    <tableColumn id="15" name="edited :" dataDxfId="78" totalsRowDxfId="77"/>
+    <tableColumn id="21" name="h_id" dataDxfId="76" totalsRowDxfId="75">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="h_jumlahbarang" dataDxfId="99" totalsRowDxfId="20">
+    <tableColumn id="22" name="h_jumlahbarang" dataDxfId="74" totalsRowDxfId="73">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="h_hargasebelumdiskon" dataDxfId="98" totalsRowDxfId="19">
+    <tableColumn id="24" name="h_hargasebelumdiskon" dataDxfId="72" totalsRowDxfId="71">
       <calculatedColumnFormula>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" name="h_disc 1" dataDxfId="97" totalsRowDxfId="18">
+    <tableColumn id="31" name="h_disc 1" dataDxfId="70" totalsRowDxfId="69">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" name="h_disc 2" dataDxfId="96" totalsRowDxfId="17">
+    <tableColumn id="30" name="h_disc 2" dataDxfId="68" totalsRowDxfId="67">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="h_diskon" dataDxfId="95" totalsRowDxfId="16">
+    <tableColumn id="25" name="h_diskon" dataDxfId="66" totalsRowDxfId="65">
       <calculatedColumnFormula>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="h_hargasetelahdiskon" dataDxfId="94" totalsRowDxfId="15">
+    <tableColumn id="26" name="h_hargasetelahdiskon" dataDxfId="64" totalsRowDxfId="63">
       <calculatedColumnFormula>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="Total Invoice" dataDxfId="93" totalsRowDxfId="14">
+    <tableColumn id="27" name="Total Invoice" dataDxfId="62" totalsRowDxfId="61">
       <calculatedColumnFormula>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="KETERANGAN" dataDxfId="92" totalsRowDxfId="13"/>
-    <tableColumn id="29" name="H_A1" dataDxfId="91" totalsRowDxfId="12">
+    <tableColumn id="28" name="KETERANGAN" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="29" name="H_A1" dataDxfId="58" totalsRowDxfId="57">
       <calculatedColumnFormula>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15482,74 +15445,74 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="pajak" displayName="pajak" ref="D4:P58" totalsRowCount="1" headerRowDxfId="82" dataDxfId="81" totalsRowDxfId="80">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="pajak" displayName="pajak" ref="D4:P58" totalsRowCount="1" headerRowDxfId="46" dataDxfId="45" totalsRowDxfId="44">
   <autoFilter ref="D4:P57"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="//" totalsRowLabel="Total" dataDxfId="79" totalsRowDxfId="78">
+    <tableColumn id="1" name="//" totalsRowLabel="Total" dataDxfId="43" totalsRowDxfId="42">
       <calculatedColumnFormula>IF(ROW()-(COUNTBLANK($D$1:$D$3)+1)&lt;=jNota,A5,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="No. Invoice :" dataDxfId="77" totalsRowDxfId="76">
+    <tableColumn id="2" name="No. Invoice :" dataDxfId="41" totalsRowDxfId="40">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[No. Invoice :],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Tgl Invoice :" dataDxfId="75" totalsRowDxfId="74">
+    <tableColumn id="3" name="Tgl Invoice :" dataDxfId="39" totalsRowDxfId="38">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Tgl Invoice :],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Kode Sales :" dataDxfId="73" totalsRowDxfId="72">
+    <tableColumn id="4" name="Kode Sales :" dataDxfId="37" totalsRowDxfId="36">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Kode Sales :],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Toko" dataDxfId="71" totalsRowDxfId="70">
+    <tableColumn id="5" name="Toko" dataDxfId="35" totalsRowDxfId="34">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Toko],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Total" totalsRowFunction="sum" dataDxfId="69" totalsRowDxfId="68">
+    <tableColumn id="6" name="Total" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="32">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Diskon" totalsRowFunction="sum" dataDxfId="67" totalsRowDxfId="66">
+    <tableColumn id="7" name="Diskon" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Sub Total" totalsRowFunction="sum" dataDxfId="65" totalsRowDxfId="64">
+    <tableColumn id="8" name="Sub Total" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="PPN 11%" totalsRowFunction="sum" dataDxfId="63" totalsRowDxfId="62">
+    <tableColumn id="9" name="PPN 11%" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="26">
       <calculatedColumnFormula>IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Total Invoice" totalsRowFunction="sum" dataDxfId="61" totalsRowDxfId="60">
+    <tableColumn id="10" name="Total Invoice" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="24">
       <calculatedColumnFormula>pajak[[#This Row],[Sub Total]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="pembuat nota" dataDxfId="59" totalsRowDxfId="58">
+    <tableColumn id="14" name="pembuat nota" dataDxfId="23" totalsRowDxfId="22">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[pembuat nota :],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="edited" dataDxfId="57" totalsRowDxfId="56">
+    <tableColumn id="15" name="edited" dataDxfId="21" totalsRowDxfId="20">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",IF(INDEX(Table1[edited :],pajak[//]-offset)="","",INDEX(Table1[edited :],pajak[//]-offset)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="4" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="12" name="4" dataDxfId="19" totalsRowDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="R4:X57" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="R4:X57" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="R4:X57"/>
   <tableColumns count="7">
-    <tableColumn id="8" name="AM" dataDxfId="51">
+    <tableColumn id="8" name="AM" dataDxfId="15">
       <calculatedColumnFormula>Table4[[#Headers],[AM]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="---" dataDxfId="50">
+    <tableColumn id="2" name="---" dataDxfId="14">
       <calculatedColumnFormula>S$3+ROW()-5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="No. Invoice :" dataDxfId="49">
+    <tableColumn id="7" name="No. Invoice :" dataDxfId="13">
       <calculatedColumnFormula>IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Kode Sales :" dataDxfId="48">
+    <tableColumn id="9" name="Kode Sales :" dataDxfId="12">
       <calculatedColumnFormula>IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Tgl Invoice :" dataDxfId="47">
+    <tableColumn id="6" name="Tgl Invoice :" dataDxfId="11">
       <calculatedColumnFormula>IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Total Invoice" dataDxfId="46">
+    <tableColumn id="4" name="Total Invoice" dataDxfId="10">
       <calculatedColumnFormula>IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="pembuat nota" dataDxfId="45">
+    <tableColumn id="3" name="pembuat nota" dataDxfId="9">
       <calculatedColumnFormula>IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15568,7 +15531,7 @@
     <tableColumn id="2" name="b"/>
     <tableColumn id="3" name="c"/>
     <tableColumn id="4" name="d"/>
-    <tableColumn id="5" name="e" dataDxfId="44">
+    <tableColumn id="5" name="e" dataDxfId="8">
       <calculatedColumnFormula>CONCATENATE(Table2[[#This Row],[b]],IF(Table2[[#This Row],[c]]=""," ",CONCATENATE(" ",Table2[[#This Row],[c]]," ")),Table2[[#This Row],[d]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15866,8 +15829,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AF280"/>
   <sheetViews>
-    <sheetView topLeftCell="A135" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B150" sqref="B150"/>
+    <sheetView topLeftCell="A121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O134" sqref="O134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38754,10 +38717,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="P63">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P31">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="14" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -38772,8 +38735,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AA58"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41604,9 +41567,7 @@
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A37" s="299">
-        <v>145</v>
-      </c>
+      <c r="A37" s="299"/>
       <c r="D37" s="295" t="str">
         <f t="shared" ref="D37:D57" ca="1" si="2">IF(ROW()-(COUNTBLANK($D$1:$D$3)+1)&lt;=jNota,A37,"")</f>
         <v/>
@@ -41686,7 +41647,9 @@
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="299"/>
+      <c r="A38" s="299" t="s">
+        <v>52</v>
+      </c>
       <c r="D38" s="295" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -41766,9 +41729,7 @@
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A39" s="299" t="s">
-        <v>52</v>
-      </c>
+      <c r="A39"/>
       <c r="D39" s="295" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -43300,10 +43261,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G59:G1048576 G3:G57">
-    <cfRule type="duplicateValues" dxfId="1" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:X2 T4:X1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="55" priority="1" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",T1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -43321,7 +43282,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L115"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A2" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
@@ -43366,10 +43327,10 @@
         <f ca="1">INDEX(Table1[h_jumlahbarang],newestIdRow-offset)</f>
         <v>2</v>
       </c>
-      <c r="I1" s="305" t="s">
+      <c r="I1" s="352" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="305"/>
+      <c r="J1" s="352"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="7.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -43398,13 +43359,13 @@
       <c r="G3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="312" t="str">
+      <c r="H3" s="359" t="str">
         <f ca="1">INDEX(Table2[b],MATCH(kToko,Table2[a],0))</f>
         <v>LILY JULIAWATI</v>
       </c>
-      <c r="I3" s="312"/>
-      <c r="J3" s="312"/>
-      <c r="K3" s="313"/>
+      <c r="I3" s="359"/>
+      <c r="J3" s="359"/>
+      <c r="K3" s="360"/>
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -43413,14 +43374,14 @@
       <c r="C4" s="13"/>
       <c r="D4" s="14"/>
       <c r="E4" s="15"/>
-      <c r="F4" s="316" t="s">
+      <c r="F4" s="330" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="16"/>
-      <c r="H4" s="314"/>
-      <c r="I4" s="314"/>
-      <c r="J4" s="314"/>
-      <c r="K4" s="315"/>
+      <c r="H4" s="361"/>
+      <c r="I4" s="361"/>
+      <c r="J4" s="361"/>
+      <c r="K4" s="362"/>
       <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -43429,20 +43390,20 @@
         <v>2</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="317">
+      <c r="D5" s="331">
         <f ca="1">INDEX(Table1[Tgl Invoice :],newestIdRow-offset)</f>
         <v>45230</v>
       </c>
-      <c r="E5" s="318"/>
-      <c r="F5" s="316"/>
+      <c r="E5" s="332"/>
+      <c r="F5" s="330"/>
       <c r="G5" s="17"/>
-      <c r="H5" s="319" t="str">
+      <c r="H5" s="333" t="str">
         <f ca="1">IF(INDEX(Table2[c],MATCH(kToko,Table2[a],0))="","",INDEX(Table2[c],MATCH(kToko,Table2[a],0)))</f>
         <v>(REJO AGUNG)</v>
       </c>
-      <c r="I5" s="319"/>
-      <c r="J5" s="319"/>
-      <c r="K5" s="320"/>
+      <c r="I5" s="333"/>
+      <c r="J5" s="333"/>
+      <c r="K5" s="334"/>
       <c r="L5" s="17"/>
     </row>
     <row r="6" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -43451,15 +43412,15 @@
       <c r="C6" s="13"/>
       <c r="D6" s="14"/>
       <c r="E6" s="15"/>
-      <c r="F6" s="316"/>
+      <c r="F6" s="330"/>
       <c r="G6" s="17"/>
-      <c r="H6" s="321" t="str">
+      <c r="H6" s="335" t="str">
         <f ca="1">INDEX(Table2[d],MATCH(kToko,Table2[a],0))</f>
         <v>JOMBANG</v>
       </c>
-      <c r="I6" s="321"/>
-      <c r="J6" s="321"/>
-      <c r="K6" s="322"/>
+      <c r="I6" s="335"/>
+      <c r="J6" s="335"/>
+      <c r="K6" s="336"/>
       <c r="L6" s="18"/>
     </row>
     <row r="7" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -43475,10 +43436,10 @@
       <c r="E7" s="8"/>
       <c r="F7" s="20"/>
       <c r="G7" s="21"/>
-      <c r="H7" s="323"/>
-      <c r="I7" s="323"/>
-      <c r="J7" s="323"/>
-      <c r="K7" s="324"/>
+      <c r="H7" s="337"/>
+      <c r="I7" s="337"/>
+      <c r="J7" s="337"/>
+      <c r="K7" s="338"/>
       <c r="L7" s="18"/>
     </row>
     <row r="8" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -44199,8 +44160,8 @@
       <c r="G28" s="63"/>
       <c r="H28" s="63"/>
       <c r="I28" s="64"/>
-      <c r="J28" s="311"/>
-      <c r="K28" s="311"/>
+      <c r="J28" s="358"/>
+      <c r="K28" s="358"/>
     </row>
     <row r="29" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
@@ -44210,11 +44171,11 @@
       <c r="I29" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="J29" s="308">
+      <c r="J29" s="355">
         <f ca="1">INDEX(pajak[Sub Total],MATCH(newestIdRow,pajak[//],0))</f>
         <v>6184500</v>
       </c>
-      <c r="K29" s="309"/>
+      <c r="K29" s="356"/>
       <c r="L29" s="35"/>
     </row>
     <row r="30" spans="1:12" s="9" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -44223,8 +44184,8 @@
       <c r="C30" s="65"/>
       <c r="D30" s="24"/>
       <c r="I30" s="67"/>
-      <c r="J30" s="310"/>
-      <c r="K30" s="310"/>
+      <c r="J30" s="357"/>
+      <c r="K30" s="357"/>
     </row>
     <row r="31" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
@@ -44247,8 +44208,8 @@
       <c r="C32" s="65"/>
       <c r="D32" s="24"/>
       <c r="I32" s="67"/>
-      <c r="J32" s="311"/>
-      <c r="K32" s="311"/>
+      <c r="J32" s="358"/>
+      <c r="K32" s="358"/>
     </row>
     <row r="33" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
@@ -44263,11 +44224,11 @@
       <c r="I33" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="J33" s="308">
+      <c r="J33" s="355">
         <f ca="1">INDEX(pajak[PPN 11%],MATCH(newestIdRow,pajak[//],0))</f>
         <v>612878.37837837834</v>
       </c>
-      <c r="K33" s="309"/>
+      <c r="K33" s="356"/>
       <c r="L33" s="72"/>
     </row>
     <row r="34" spans="1:12" s="9" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -44276,8 +44237,8 @@
       <c r="C34" s="65"/>
       <c r="D34" s="24"/>
       <c r="I34" s="67"/>
-      <c r="J34" s="311"/>
-      <c r="K34" s="311"/>
+      <c r="J34" s="358"/>
+      <c r="K34" s="358"/>
     </row>
     <row r="35" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
@@ -44318,11 +44279,11 @@
       <c r="I37" s="176" t="s">
         <v>12</v>
       </c>
-      <c r="J37" s="306" t="str">
+      <c r="J37" s="353" t="str">
         <f ca="1">INDEX(pajak[pembuat nota],MATCH(newestIdRow,pajak[//],0))</f>
         <v>NOVI / CONDRO</v>
       </c>
-      <c r="K37" s="307"/>
+      <c r="K37" s="354"/>
     </row>
     <row r="38" spans="1:12" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="77"/>
@@ -44332,11 +44293,11 @@
       <c r="I38" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="J38" s="306" t="str">
+      <c r="J38" s="353" t="str">
         <f ca="1">INDEX(pajak[edited],MATCH(newestIdRow,pajak[//],0))</f>
         <v/>
       </c>
-      <c r="K38" s="307"/>
+      <c r="K38" s="354"/>
       <c r="L38" s="63"/>
     </row>
     <row r="39" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -44381,13 +44342,13 @@
       <c r="G41" s="191" t="s">
         <v>16</v>
       </c>
-      <c r="H41" s="325" t="str">
+      <c r="H41" s="339" t="str">
         <f ca="1">H3</f>
         <v>LILY JULIAWATI</v>
       </c>
-      <c r="I41" s="325"/>
-      <c r="J41" s="325"/>
-      <c r="K41" s="326"/>
+      <c r="I41" s="339"/>
+      <c r="J41" s="339"/>
+      <c r="K41" s="340"/>
       <c r="L41" s="192"/>
     </row>
     <row r="42" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -44396,14 +44357,14 @@
       <c r="C42" s="194"/>
       <c r="D42" s="195"/>
       <c r="E42" s="196"/>
-      <c r="F42" s="329" t="s">
+      <c r="F42" s="343" t="s">
         <v>18</v>
       </c>
       <c r="G42" s="197"/>
-      <c r="H42" s="327"/>
-      <c r="I42" s="327"/>
-      <c r="J42" s="327"/>
-      <c r="K42" s="328"/>
+      <c r="H42" s="341"/>
+      <c r="I42" s="341"/>
+      <c r="J42" s="341"/>
+      <c r="K42" s="342"/>
       <c r="L42" s="192"/>
     </row>
     <row r="43" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -44412,20 +44373,20 @@
         <v>2</v>
       </c>
       <c r="C43" s="187"/>
-      <c r="D43" s="330">
+      <c r="D43" s="344">
         <f ca="1">D5</f>
         <v>45230</v>
       </c>
-      <c r="E43" s="331"/>
-      <c r="F43" s="329"/>
+      <c r="E43" s="345"/>
+      <c r="F43" s="343"/>
       <c r="G43" s="198"/>
-      <c r="H43" s="332" t="str">
+      <c r="H43" s="346" t="str">
         <f ca="1">H5</f>
         <v>(REJO AGUNG)</v>
       </c>
-      <c r="I43" s="332"/>
-      <c r="J43" s="332"/>
-      <c r="K43" s="333"/>
+      <c r="I43" s="346"/>
+      <c r="J43" s="346"/>
+      <c r="K43" s="347"/>
       <c r="L43" s="199"/>
     </row>
     <row r="44" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -44434,15 +44395,15 @@
       <c r="C44" s="194"/>
       <c r="D44" s="195"/>
       <c r="E44" s="196"/>
-      <c r="F44" s="329"/>
+      <c r="F44" s="343"/>
       <c r="G44" s="198"/>
-      <c r="H44" s="334" t="str">
+      <c r="H44" s="348" t="str">
         <f ca="1">H6</f>
         <v>JOMBANG</v>
       </c>
-      <c r="I44" s="334"/>
-      <c r="J44" s="334"/>
-      <c r="K44" s="335"/>
+      <c r="I44" s="348"/>
+      <c r="J44" s="348"/>
+      <c r="K44" s="349"/>
       <c r="L44" s="200"/>
     </row>
     <row r="45" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -44458,10 +44419,10 @@
       <c r="E45" s="189"/>
       <c r="F45" s="202"/>
       <c r="G45" s="203"/>
-      <c r="H45" s="336"/>
-      <c r="I45" s="336"/>
-      <c r="J45" s="336"/>
-      <c r="K45" s="337"/>
+      <c r="H45" s="350"/>
+      <c r="I45" s="350"/>
+      <c r="J45" s="350"/>
+      <c r="K45" s="351"/>
       <c r="L45" s="200"/>
     </row>
     <row r="46" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -45186,8 +45147,8 @@
       <c r="G66" s="247"/>
       <c r="H66" s="247"/>
       <c r="I66" s="248"/>
-      <c r="J66" s="338"/>
-      <c r="K66" s="338"/>
+      <c r="J66" s="319"/>
+      <c r="K66" s="319"/>
       <c r="L66" s="210"/>
     </row>
     <row r="67" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -45202,11 +45163,11 @@
       <c r="I67" s="250" t="s">
         <v>21</v>
       </c>
-      <c r="J67" s="339">
+      <c r="J67" s="327">
         <f ca="1">J29</f>
         <v>6184500</v>
       </c>
-      <c r="K67" s="340"/>
+      <c r="K67" s="328"/>
       <c r="L67" s="218"/>
     </row>
     <row r="68" spans="1:12" s="9" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -45219,8 +45180,8 @@
       <c r="G68" s="207"/>
       <c r="H68" s="207"/>
       <c r="I68" s="251"/>
-      <c r="J68" s="341"/>
-      <c r="K68" s="341"/>
+      <c r="J68" s="329"/>
+      <c r="K68" s="329"/>
       <c r="L68" s="210"/>
     </row>
     <row r="69" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -45255,8 +45216,8 @@
       <c r="G70" s="207"/>
       <c r="H70" s="207"/>
       <c r="I70" s="251"/>
-      <c r="J70" s="338"/>
-      <c r="K70" s="338"/>
+      <c r="J70" s="319"/>
+      <c r="K70" s="319"/>
       <c r="L70" s="210"/>
     </row>
     <row r="71" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -45275,11 +45236,11 @@
       <c r="I71" s="250" t="s">
         <v>25</v>
       </c>
-      <c r="J71" s="339">
+      <c r="J71" s="327">
         <f ca="1">J33</f>
         <v>612878.37837837834</v>
       </c>
-      <c r="K71" s="340"/>
+      <c r="K71" s="328"/>
       <c r="L71" s="256"/>
     </row>
     <row r="72" spans="1:12" s="9" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -45292,8 +45253,8 @@
       <c r="G72" s="207"/>
       <c r="H72" s="207"/>
       <c r="I72" s="251"/>
-      <c r="J72" s="338"/>
-      <c r="K72" s="338"/>
+      <c r="J72" s="319"/>
+      <c r="K72" s="319"/>
       <c r="L72" s="210"/>
     </row>
     <row r="73" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -45343,11 +45304,11 @@
       <c r="I75" s="266" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="342" t="str">
+      <c r="J75" s="320" t="str">
         <f ca="1">J37</f>
         <v>NOVI / CONDRO</v>
       </c>
-      <c r="K75" s="343"/>
+      <c r="K75" s="321"/>
       <c r="L75" s="210"/>
     </row>
     <row r="76" spans="1:12" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -45362,11 +45323,11 @@
       <c r="I76" s="268" t="s">
         <v>13</v>
       </c>
-      <c r="J76" s="342" t="str">
+      <c r="J76" s="320" t="str">
         <f ca="1">J38</f>
         <v/>
       </c>
-      <c r="K76" s="343"/>
+      <c r="K76" s="321"/>
       <c r="L76" s="264"/>
     </row>
     <row r="77" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -45415,13 +45376,13 @@
       <c r="G79" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="H79" s="344" t="str">
+      <c r="H79" s="322" t="str">
         <f ca="1">H41</f>
         <v>LILY JULIAWATI</v>
       </c>
-      <c r="I79" s="344"/>
-      <c r="J79" s="344"/>
-      <c r="K79" s="345"/>
+      <c r="I79" s="322"/>
+      <c r="J79" s="322"/>
+      <c r="K79" s="323"/>
       <c r="L79" s="99"/>
     </row>
     <row r="80" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -45430,14 +45391,14 @@
       <c r="C80" s="101"/>
       <c r="D80" s="102"/>
       <c r="E80" s="103"/>
-      <c r="F80" s="348" t="s">
+      <c r="F80" s="326" t="s">
         <v>18</v>
       </c>
       <c r="G80" s="104"/>
-      <c r="H80" s="346"/>
-      <c r="I80" s="346"/>
-      <c r="J80" s="346"/>
-      <c r="K80" s="347"/>
+      <c r="H80" s="324"/>
+      <c r="I80" s="324"/>
+      <c r="J80" s="324"/>
+      <c r="K80" s="325"/>
       <c r="L80" s="99"/>
     </row>
     <row r="81" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -45446,20 +45407,20 @@
         <v>2</v>
       </c>
       <c r="C81" s="94"/>
-      <c r="D81" s="349">
+      <c r="D81" s="311">
         <f ca="1">D43</f>
         <v>45230</v>
       </c>
-      <c r="E81" s="350"/>
-      <c r="F81" s="348"/>
+      <c r="E81" s="312"/>
+      <c r="F81" s="326"/>
       <c r="G81" s="105"/>
-      <c r="H81" s="351" t="str">
+      <c r="H81" s="313" t="str">
         <f ca="1">H43</f>
         <v>(REJO AGUNG)</v>
       </c>
-      <c r="I81" s="351"/>
-      <c r="J81" s="351"/>
-      <c r="K81" s="352"/>
+      <c r="I81" s="313"/>
+      <c r="J81" s="313"/>
+      <c r="K81" s="314"/>
       <c r="L81" s="106"/>
     </row>
     <row r="82" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -45468,15 +45429,15 @@
       <c r="C82" s="101"/>
       <c r="D82" s="102"/>
       <c r="E82" s="103"/>
-      <c r="F82" s="348"/>
+      <c r="F82" s="326"/>
       <c r="G82" s="105"/>
-      <c r="H82" s="353" t="str">
+      <c r="H82" s="315" t="str">
         <f ca="1">H44</f>
         <v>JOMBANG</v>
       </c>
-      <c r="I82" s="353"/>
-      <c r="J82" s="353"/>
-      <c r="K82" s="354"/>
+      <c r="I82" s="315"/>
+      <c r="J82" s="315"/>
+      <c r="K82" s="316"/>
       <c r="L82" s="107"/>
     </row>
     <row r="83" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -45492,10 +45453,10 @@
       <c r="E83" s="96"/>
       <c r="F83" s="109"/>
       <c r="G83" s="110"/>
-      <c r="H83" s="355"/>
-      <c r="I83" s="355"/>
-      <c r="J83" s="355"/>
-      <c r="K83" s="356"/>
+      <c r="H83" s="317"/>
+      <c r="I83" s="317"/>
+      <c r="J83" s="317"/>
+      <c r="K83" s="318"/>
       <c r="L83" s="107"/>
     </row>
     <row r="84" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -46220,8 +46181,8 @@
       <c r="G104" s="154"/>
       <c r="H104" s="154"/>
       <c r="I104" s="155"/>
-      <c r="J104" s="357"/>
-      <c r="K104" s="357"/>
+      <c r="J104" s="308"/>
+      <c r="K104" s="308"/>
       <c r="L104" s="117"/>
     </row>
     <row r="105" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -46236,11 +46197,11 @@
       <c r="I105" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="J105" s="358">
+      <c r="J105" s="309">
         <f ca="1">J67</f>
         <v>6184500</v>
       </c>
-      <c r="K105" s="359"/>
+      <c r="K105" s="310"/>
       <c r="L105" s="125"/>
     </row>
     <row r="106" spans="1:12" s="9" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -46253,8 +46214,8 @@
       <c r="G106" s="114"/>
       <c r="H106" s="114"/>
       <c r="I106" s="158"/>
-      <c r="J106" s="362"/>
-      <c r="K106" s="362"/>
+      <c r="J106" s="307"/>
+      <c r="K106" s="307"/>
       <c r="L106" s="117"/>
     </row>
     <row r="107" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -46289,8 +46250,8 @@
       <c r="G108" s="114"/>
       <c r="H108" s="114"/>
       <c r="I108" s="158"/>
-      <c r="J108" s="357"/>
-      <c r="K108" s="357"/>
+      <c r="J108" s="308"/>
+      <c r="K108" s="308"/>
       <c r="L108" s="117"/>
     </row>
     <row r="109" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -46309,11 +46270,11 @@
       <c r="I109" s="157" t="s">
         <v>25</v>
       </c>
-      <c r="J109" s="358">
+      <c r="J109" s="309">
         <f ca="1">J71</f>
         <v>612878.37837837834</v>
       </c>
-      <c r="K109" s="359"/>
+      <c r="K109" s="310"/>
       <c r="L109" s="163"/>
     </row>
     <row r="110" spans="1:12" s="9" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -46326,8 +46287,8 @@
       <c r="G110" s="114"/>
       <c r="H110" s="114"/>
       <c r="I110" s="158"/>
-      <c r="J110" s="357"/>
-      <c r="K110" s="357"/>
+      <c r="J110" s="308"/>
+      <c r="K110" s="308"/>
       <c r="L110" s="117"/>
     </row>
     <row r="111" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -46377,11 +46338,11 @@
       <c r="I113" s="178" t="s">
         <v>12</v>
       </c>
-      <c r="J113" s="360" t="str">
+      <c r="J113" s="305" t="str">
         <f ca="1">J75</f>
         <v>NOVI / CONDRO</v>
       </c>
-      <c r="K113" s="361"/>
+      <c r="K113" s="306"/>
       <c r="L113" s="117"/>
     </row>
     <row r="114" spans="1:12" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -46396,11 +46357,11 @@
       <c r="I114" s="179" t="s">
         <v>13</v>
       </c>
-      <c r="J114" s="360" t="str">
+      <c r="J114" s="305" t="str">
         <f ca="1">J76</f>
         <v/>
       </c>
-      <c r="K114" s="361"/>
+      <c r="K114" s="306"/>
       <c r="L114" s="171"/>
     </row>
     <row r="115" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -46419,36 +46380,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="J114:K114"/>
-    <mergeCell ref="J106:K106"/>
-    <mergeCell ref="J108:K108"/>
-    <mergeCell ref="J109:K109"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="J113:K113"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="H81:K81"/>
-    <mergeCell ref="H82:K83"/>
-    <mergeCell ref="J104:K104"/>
-    <mergeCell ref="J105:K105"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="H79:K80"/>
-    <mergeCell ref="F80:F82"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H6:K7"/>
-    <mergeCell ref="H41:K42"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="H44:K45"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="J38:K38"/>
     <mergeCell ref="J29:K29"/>
@@ -46459,6 +46390,36 @@
     <mergeCell ref="J37:K37"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="H3:K4"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H6:K7"/>
+    <mergeCell ref="H41:K42"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="H44:K45"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="H79:K80"/>
+    <mergeCell ref="F80:F82"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="H82:K83"/>
+    <mergeCell ref="J104:K104"/>
+    <mergeCell ref="J105:K105"/>
+    <mergeCell ref="J114:K114"/>
+    <mergeCell ref="J106:K106"/>
+    <mergeCell ref="J108:K108"/>
+    <mergeCell ref="J109:K109"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="J113:K113"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="1.0416666666666701E-2" top="0" bottom="4.7291666666666696" header="0" footer="0"/>
